--- a/PythonApplication3/Data/WrNeustadt.xlsx
+++ b/PythonApplication3/Data/WrNeustadt.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icerm\source\repos\PythonApplication3\PythonApplication3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C70CD28-FD8F-422B-84F7-D02BBCEB2E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB37019-C54E-4A58-A162-8709F97CAA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Übersicht" sheetId="2" r:id="rId1"/>
+    <sheet name="Wohnen" sheetId="1" r:id="rId2"/>
+    <sheet name="Gewerbe" sheetId="3" r:id="rId3"/>
+    <sheet name="Schule" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Wohnfläche</t>
   </si>
@@ -46,12 +49,6 @@
     <t>Aufteilung</t>
   </si>
   <si>
-    <t>Fläche pro Wohnung [m²]</t>
-  </si>
-  <si>
-    <t>Wohnfläche [m²]</t>
-  </si>
-  <si>
     <t>Personen pro Wohnung</t>
   </si>
   <si>
@@ -59,6 +56,123 @@
   </si>
   <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>anz Stockwerke</t>
+  </si>
+  <si>
+    <t>Höhe [m]</t>
+  </si>
+  <si>
+    <t>gfa [m²]</t>
+  </si>
+  <si>
+    <t>boden[m²]</t>
+  </si>
+  <si>
+    <t>Wohnfläche W1</t>
+  </si>
+  <si>
+    <t>Wohnfläche W2</t>
+  </si>
+  <si>
+    <t>Wohnfläche W3</t>
+  </si>
+  <si>
+    <t>Wohnfläche W4</t>
+  </si>
+  <si>
+    <t>[m²]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strom pro Person/Jahr </t>
+  </si>
+  <si>
+    <t>[kWh/a]</t>
+  </si>
+  <si>
+    <t>anz. Wohnungen</t>
+  </si>
+  <si>
+    <t>Strom Gesamt</t>
+  </si>
+  <si>
+    <t>Wohnungen Gesamt</t>
+  </si>
+  <si>
+    <t>Personen Gesamt</t>
+  </si>
+  <si>
+    <t>Korrekturfaktor</t>
+  </si>
+  <si>
+    <t>Für Flur schächte, technikräume etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fläche pro Wohnung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wohnfläche </t>
+  </si>
+  <si>
+    <t>gfa red [m²]</t>
+  </si>
+  <si>
+    <t>W2.1</t>
+  </si>
+  <si>
+    <t>W2.2</t>
+  </si>
+  <si>
+    <t>Wohnen</t>
+  </si>
+  <si>
+    <t>Gewerbe</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Dach</t>
+  </si>
+  <si>
+    <t>Hülle</t>
+  </si>
+  <si>
+    <t>Boden</t>
+  </si>
+  <si>
+    <t>Volumen [m³]</t>
   </si>
 </sst>
 </file>
@@ -108,10 +222,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -128,6 +249,803 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>703534</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BFB41A-0CD6-4D3B-B505-1A06393A5CB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="0"/>
+          <a:ext cx="9980884" cy="8102130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191E7D01-125E-4C30-B4BF-CECE33E0BB31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="4486275"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>W1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79B0350-37DE-44C7-8787-4096F2858F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="4943475"/>
+          <a:ext cx="685800" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>W2.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB6A1C8-8EE9-458E-949F-C18152E3FD69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="4781550"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>W3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153D5105-F8CC-41E7-9EBF-F2DFE7D84E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="5505450"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>W4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Textfeld 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EF12BE-E281-4360-ADDA-D3F70ACA9F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="6191250"/>
+          <a:ext cx="857250" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>W2.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Textfeld 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CCAA21-AE59-464A-A134-8461765806C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="4505325"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Textfeld 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C51CB70-B88C-42A5-96BE-222092B4DE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="4524375"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Textfeld 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F9B011-0492-4190-B364-9C8BF24C9701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="4257675"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Textfeld 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F498BF-798F-4D60-A3C5-BFBA1FA77640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505825" y="4467225"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>G4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Textfeld 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B848F73-A76A-4EE8-A3A5-7B9177A74277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="2619375"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Textfeld 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFB99C0-386A-416E-8F29-18B0796D2CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="3162300"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,162 +1310,1332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E27D90-934B-474B-A672-1D4F9D9EBE3C}">
+  <dimension ref="Q3:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <f>R5/3-1</f>
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>1974</v>
+      </c>
+      <c r="U5">
+        <f>T5*S5</f>
+        <v>9870</v>
+      </c>
+      <c r="V5">
+        <f>R5*T5</f>
+        <v>35532</v>
+      </c>
+    </row>
+    <row r="6" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>21</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S9" si="0">R6/3-1</f>
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>612</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U9" si="1">T6*S6</f>
+        <v>3672</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V9" si="2">R6*T6</f>
+        <v>12852</v>
+      </c>
+    </row>
+    <row r="7" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7">
+        <v>48</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T7">
+        <v>612</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>9180</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>29376</v>
+      </c>
+    </row>
+    <row r="8" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>45</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>750</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="9" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>45</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>652</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>9128</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>29340</v>
+      </c>
+    </row>
+    <row r="10" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f>SUM(U5:U9)</f>
+        <v>42350</v>
+      </c>
+    </row>
+    <row r="13" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1974</v>
+      </c>
+      <c r="U15">
+        <f>T15*S15</f>
+        <v>1974</v>
+      </c>
+      <c r="V15">
+        <f>R15*T15</f>
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="16" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>2509</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U19" si="3">T16*S16</f>
+        <v>2509</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16:V18" si="4">R16*T16</f>
+        <v>15054</v>
+      </c>
+    </row>
+    <row r="17" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>1600</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S16:S19" si="5">R18/3-1</f>
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <f>285+177</f>
+        <v>462</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="3"/>
+        <v>1848</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="19" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f>SUM(U15:U18)</f>
+        <v>9531</v>
+      </c>
+    </row>
+    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22">
+        <f>U15+U5</f>
+        <v>11844</v>
+      </c>
+      <c r="V22">
+        <f>V15+V5</f>
+        <v>41454</v>
+      </c>
+    </row>
+    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23">
+        <f>U16+U6+U7</f>
+        <v>15361</v>
+      </c>
+      <c r="V23">
+        <f>V16+V6+V7</f>
+        <v>57282</v>
+      </c>
+    </row>
+    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U24">
+        <f>U8+U17</f>
+        <v>13700</v>
+      </c>
+      <c r="V24">
+        <f>V8+V17</f>
+        <v>49750</v>
+      </c>
+    </row>
+    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25">
+        <f>U9+U18</f>
+        <v>10976</v>
+      </c>
+      <c r="V25">
+        <f>V9+V18</f>
+        <v>36270</v>
+      </c>
+    </row>
+    <row r="27" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28">
+        <f>748.52+962</f>
+        <v>1710.52</v>
+      </c>
+    </row>
+    <row r="29" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29">
+        <f>R28</f>
+        <v>1710.52</v>
+      </c>
+    </row>
+    <row r="30" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30">
+        <f>990+135+400+1239.32+400+769.56+400+1239.32+45</f>
+        <v>5618.1999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f>R30*0.4</f>
+        <v>2247.2799999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f>R30*0.6</f>
+        <v>3370.9199999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q13:U13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:R30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>40000</v>
-      </c>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <f>D3/3-1</f>
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3">
+        <v>1974</v>
+      </c>
+      <c r="G3">
+        <f>F3*E3</f>
+        <v>9870</v>
+      </c>
+      <c r="H3">
+        <f>F3*E3*I3</f>
+        <v>7896</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="0">D4/3-1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <f>C4*$C$2</f>
-        <v>4000</v>
-      </c>
       <c r="F4">
-        <v>1.25</v>
+        <v>612</v>
       </c>
       <c r="G4">
-        <f>ROUNDUP(F4*E4/D4,0)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>0.1</v>
+        <f t="shared" ref="G4:G7" si="1">F4*E4</f>
+        <v>3672</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4*E4*I3</f>
+        <v>2937.6000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E8" si="0">C5*$C$2</f>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>612</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G8" si="1">ROUNDUP(F5*E5/D5,0)</f>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>9180</v>
+      </c>
+      <c r="H5">
+        <f>F5*E5*I3</f>
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>750</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>0.3</v>
+        <v>10500</v>
+      </c>
+      <c r="H6">
+        <f>F6*E6*I3</f>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+        <v>9128</v>
+      </c>
+      <c r="H7" s="5">
+        <f>F7*E7*I3</f>
+        <v>7302.4000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>SUM(G3:G7)</f>
+        <v>42350</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H3:H7)</f>
+        <v>33880</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <f>H3</f>
+        <v>7896</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <f>H4+H5</f>
+        <v>10281.6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <f>C13*$C$10</f>
+        <v>789.6</v>
+      </c>
+      <c r="F13">
+        <f>E13/D13</f>
+        <v>31.584</v>
+      </c>
+      <c r="G13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H13">
+        <f>ROUNDUP(G13*E13/D13,0)</f>
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>1300</v>
+      </c>
+      <c r="L13" s="1">
+        <f>C13</f>
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <f>L13*$L$10</f>
+        <v>1028.1600000000001</v>
+      </c>
+      <c r="O13">
+        <f>N13/M13</f>
+        <v>41.126400000000004</v>
+      </c>
+      <c r="P13">
+        <f>G13</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q13">
+        <f>ROUNDUP(P13*N13/M13,0)</f>
+        <v>48</v>
+      </c>
+      <c r="R13">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>0.2</v>
       </c>
-      <c r="D8">
-        <v>120</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="F8">
-        <v>4.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(C4:C8)</f>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <f>C14*$C$10</f>
+        <v>1579.2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F16" si="2">E14/D14</f>
+        <v>35.093333333333334</v>
+      </c>
+      <c r="G14">
+        <v>1.5</v>
+      </c>
+      <c r="H14">
+        <f>ROUNDUP(G14*E14/D14,0)</f>
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <v>2200</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14:L16" si="3">C14</f>
+        <v>0.2</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14">
+        <f>L14*$L$10</f>
+        <v>2056.3200000000002</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O16" si="4">N14/M14</f>
+        <v>45.696000000000005</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P16" si="5">G14</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q16" si="6">ROUNDUP(P14*N14/M14,0)</f>
+        <v>69</v>
+      </c>
+      <c r="R14">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <f>C15*$C$10</f>
+        <v>2763.6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>42.516923076923078</v>
+      </c>
+      <c r="G15">
+        <v>2.5</v>
+      </c>
+      <c r="H15">
+        <f>ROUNDUP(G15*E15/D15,0)</f>
+        <v>107</v>
+      </c>
+      <c r="I15">
+        <v>2800</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="M15">
+        <v>65</v>
+      </c>
+      <c r="N15">
+        <f>L15*$L$10</f>
+        <v>3598.56</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>55.362461538461538</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="R15">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D16">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <f>C16*$C$10</f>
+        <v>2763.6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>32.512941176470591</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+      <c r="H16">
+        <f>ROUNDUP(G16*E16/D16,0)</f>
+        <v>114</v>
+      </c>
+      <c r="I16">
+        <v>3300</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="M16">
+        <v>85</v>
+      </c>
+      <c r="N16">
+        <f>L16*$L$10</f>
+        <v>3598.56</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>42.335999999999999</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>149</v>
+      </c>
+      <c r="R16">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(C13:C16)</f>
         <v>1</v>
       </c>
-      <c r="E9">
-        <f>SUM(E4:E8)</f>
-        <v>40000</v>
-      </c>
-      <c r="G9">
-        <f>SUM(G4:G8)</f>
-        <v>1489</v>
+      <c r="E17">
+        <f>SUM(E13:E16)</f>
+        <v>7896</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F13:F16)</f>
+        <v>141.70719758672701</v>
+      </c>
+      <c r="H17">
+        <f>SUM(H13:H16)</f>
+        <v>311</v>
+      </c>
+      <c r="I17">
+        <f>SUMPRODUCT(I13:I16,H13:H16)</f>
+        <v>840500</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2">
+        <f>SUM(L13:L16)</f>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f>SUM(N13:N16)</f>
+        <v>10281.6</v>
+      </c>
+      <c r="O17">
+        <f>SUM(O13:O16)</f>
+        <v>184.52086153846153</v>
+      </c>
+      <c r="Q17">
+        <f>SUM(Q13:Q16)</f>
+        <v>405</v>
+      </c>
+      <c r="R17">
+        <f>SUMPRODUCT(R13:R16,Q13:Q16)</f>
+        <v>1095100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <f>H6</f>
+        <v>8400</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <f>H7</f>
+        <v>7302.4000000000005</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <f>C13</f>
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <f>C23*$C$20</f>
+        <v>840</v>
+      </c>
+      <c r="F23">
+        <f>E23/D23</f>
+        <v>33.6</v>
+      </c>
+      <c r="G23">
+        <f>G13</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H23">
+        <f>ROUNDUP(G23*E23/D23,0)</f>
+        <v>39</v>
+      </c>
+      <c r="I23">
+        <v>1300</v>
+      </c>
+      <c r="L23" s="1">
+        <f>C13</f>
+        <v>0.1</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <f>L23*$L$20</f>
+        <v>730.24000000000012</v>
+      </c>
+      <c r="O23">
+        <f>N23/M23</f>
+        <v>29.209600000000005</v>
+      </c>
+      <c r="P23">
+        <f>G13</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q23">
+        <f>ROUNDUP(P23*N23/M23,0)</f>
+        <v>34</v>
+      </c>
+      <c r="R23">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:C26" si="7">C14</f>
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <f>C24*$C$20</f>
+        <v>1680</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F26" si="8">E24/D24</f>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G26" si="9">G14</f>
+        <v>1.5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H26" si="10">ROUNDUP(G24*E24/D24,0)</f>
+        <v>56</v>
+      </c>
+      <c r="I24">
+        <v>2200</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24:L26" si="11">C14</f>
+        <v>0.2</v>
+      </c>
+      <c r="M24">
+        <v>45</v>
+      </c>
+      <c r="N24">
+        <f>L24*$L$20</f>
+        <v>1460.4800000000002</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:O26" si="12">N24/M24</f>
+        <v>32.455111111111115</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P26" si="13">G14</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:Q26" si="14">ROUNDUP(P24*N24/M24,0)</f>
+        <v>49</v>
+      </c>
+      <c r="R24">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="D25">
+        <v>65</v>
+      </c>
+      <c r="E25">
+        <f>C25*$C$20</f>
+        <v>2940</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>45.230769230769234</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="I25">
+        <v>2800</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="11"/>
+        <v>0.35</v>
+      </c>
+      <c r="M25">
+        <v>65</v>
+      </c>
+      <c r="N25">
+        <f>L25*$L$20</f>
+        <v>2555.84</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="12"/>
+        <v>39.320615384615387</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="R25">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <f>C26*$C$20</f>
+        <v>2940</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>34.588235294117645</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+      <c r="I26">
+        <v>3300</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="11"/>
+        <v>0.35</v>
+      </c>
+      <c r="M26">
+        <v>85</v>
+      </c>
+      <c r="N26">
+        <f>L26*$L$20</f>
+        <v>2555.84</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="12"/>
+        <v>30.068705882352944</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="13"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="14"/>
+        <v>106</v>
+      </c>
+      <c r="R26">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <f>SUM(C23:C26)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E23:E26)</f>
+        <v>8400</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F23:F26)</f>
+        <v>150.75233785822022</v>
+      </c>
+      <c r="H27">
+        <f>SUM(H23:H26)</f>
+        <v>331</v>
+      </c>
+      <c r="I27">
+        <f>SUMPRODUCT(I23:I26,H23:H26)</f>
+        <v>895700</v>
+      </c>
+      <c r="K27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="2">
+        <f>SUM(L23:L26)</f>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f>SUM(N23:N26)</f>
+        <v>7302.4000000000005</v>
+      </c>
+      <c r="O27">
+        <f>SUM(O23:O26)</f>
+        <v>131.05403237807946</v>
+      </c>
+      <c r="Q27">
+        <f>SUM(Q23:Q26)</f>
+        <v>288</v>
+      </c>
+      <c r="R27">
+        <f>SUMPRODUCT(R23:R26,Q23:Q26)</f>
+        <v>779000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>ROUNDUP(F27+F17+O17+O27,0)</f>
+        <v>609</v>
+      </c>
+      <c r="G30">
+        <f>ROUNDUP(H27+H17+O17+O27,0)</f>
+        <v>958</v>
+      </c>
+      <c r="H30">
+        <f>I27+I17+R27+R17</f>
+        <v>3610300</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P21:P22"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833779CB-4F96-4396-AA2B-83371DF475E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C114B2FA-4A69-4020-BD2D-E76A64DF884D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PythonApplication3/Data/WrNeustadt.xlsx
+++ b/PythonApplication3/Data/WrNeustadt.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icerm\source\repos\PythonApplication3\PythonApplication3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\source\repos\EKS\PythonApplication3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB37019-C54E-4A58-A162-8709F97CAA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50016BB4-3E9E-49EA-9112-2F6A8B9EFCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19980" windowHeight="14190" xr2:uid="{00000000-0000-0000-0000-000000000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" r:id="rId1"/>
     <sheet name="Wohnen" sheetId="1" r:id="rId2"/>
     <sheet name="Gewerbe" sheetId="3" r:id="rId3"/>
     <sheet name="Schule" sheetId="4" r:id="rId4"/>
+    <sheet name="E-Mobilität" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>Wohnfläche</t>
   </si>
@@ -174,6 +175,42 @@
   <si>
     <t>Volumen [m³]</t>
   </si>
+  <si>
+    <t>Probability of Distance</t>
+  </si>
+  <si>
+    <t>0-15 km</t>
+  </si>
+  <si>
+    <t>15-30 km</t>
+  </si>
+  <si>
+    <t>30-45 km</t>
+  </si>
+  <si>
+    <t>45-60 km</t>
+  </si>
+  <si>
+    <t>60-75 km</t>
+  </si>
+  <si>
+    <t>&gt;75 km</t>
+  </si>
+  <si>
+    <t>Gefahrene Meilen</t>
+  </si>
+  <si>
+    <t>Gefahrene Kilometer</t>
+  </si>
+  <si>
+    <t>Frequenz</t>
+  </si>
+  <si>
+    <t>Summe der Wahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit Kilometer gefahren</t>
+  </si>
 </sst>
 </file>
 
@@ -222,17 +259,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -249,6 +288,2407 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Wahrscheinlichkeit der gefahrenen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Kilometer</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'E-Mobilität'!$F$4:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0-15 km</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15-30 km</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-45 km</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45-60 km</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60-75 km</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&gt;75 km</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'E-Mobilität'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A260-4800-909D-6977BE58329A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="842259392"/>
+        <c:axId val="842257096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="842259392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842257096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="842257096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842259392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Wahrscheinlichkeit das bestimmte</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Kilometer gefahren werden</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E-Mobilität'!$L$2:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Wahrscheinlichkeit Kilometer gefahren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'E-Mobilität'!$J$4:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.21868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.43736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6560400000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.87472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.093399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.312080000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.530760000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.74944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.968119999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.186799999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.405479999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.624160000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.842840000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.061520000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.280200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.49888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.717559999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.936239999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.154919999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.373599999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.592280000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.810959999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74.029640000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77.248320000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.685680000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86.904359999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.123040000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.341719999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.560400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.779079999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102.99776</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>106.21644000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109.43512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>112.6538</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>115.87248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>119.09116</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>122.30983999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'E-Mobilität'!$L$4:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4025245441795231E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4025245441795231E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4025245441795231E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4025245441795231E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4516129032258064E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5427769985974754E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8330995792426369E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1416549789621322E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2075736325385693E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9929873772791025E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3295932678821878E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3674614305750346E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1528751753155678E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4333800841514724E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6956521739130432E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5918653576437586E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2552594670406733E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5259467040673214E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0490883590462832E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7124824684431979E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7868162692847124E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3660589060308554E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.300140252454418E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.82328190743338E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4586255259467041E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4025245441795231E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.2931276297335205E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5736325385694246E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2931276297335205E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.4516129032258064E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.6100981767180924E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4516129032258064E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8050490883590462E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.4151472650771393E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4025245441795231E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1220196353436186E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1220196353436186E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8050490883590464E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E9D-4913-88D2-D7CAA7AF4FF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="665286864"/>
+        <c:axId val="665284240"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E-Mobilität'!$M$2:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Summe der Wahrscheinlichkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'E-Mobilität'!$J$4:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.21868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.43736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6560400000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.87472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.093399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.312080000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.530760000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.74944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.968119999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.186799999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.405479999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.624160000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.842840000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.061520000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.280200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.49888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.717559999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.936239999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.154919999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.373599999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.592280000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.810959999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74.029640000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77.248320000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.685680000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86.904359999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.123040000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.341719999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.560400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.779079999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102.99776</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>106.21644000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109.43512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>112.6538</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>115.87248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>119.09116</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>122.30983999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'E-Mobilität'!$M$4:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4025245441795231E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8050490883590462E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2075736325385693E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6100981767180924E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2061711079943898E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7489481065918652E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5820476858345021E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7237026647966343E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12931276297335204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17924263674614305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23253856942496492</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29621318373071526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36774193548387091</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44207573632538566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52903225806451615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59495091164095371</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65750350631136045</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71276297335203365</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76325385694249648</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8103786816269285</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84824684431977559</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88190743338008415</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90490883590462834</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92314165497896217</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93772791023842916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95175315568022434</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95904628330995789</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96661991584852736</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97391304347826091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98036465638148673</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98597475455820482</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99242636746143065</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99523141654978975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99607293127629748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99747545582047703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99859747545582067</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99971949509116431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E9D-4913-88D2-D7CAA7AF4FF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="845113400"/>
+        <c:axId val="845110120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="665286864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665284240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665284240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665286864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="845110120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845113400"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="845113400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="845110120"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,6 +3488,687 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>453666</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2FD296-1923-4A67-94C3-F21CF87F8B35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>252366</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>580926</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>49149</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="Gruppieren 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE82B08C-116D-439E-966F-D0CC81E426F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14203690" y="4868156"/>
+          <a:ext cx="30808560" cy="10420993"/>
+          <a:chOff x="7361697" y="3440206"/>
+          <a:chExt cx="30808560" cy="10420993"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Grafik 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A123B94-0ED3-4EE7-BEAB-C914C02496E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7361697" y="3440206"/>
+            <a:ext cx="17706909" cy="10420993"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Gerader Verbinder 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0038FAFC-520B-4DB3-ACEF-69143E874EBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9274157" y="5175299"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="Gerader Verbinder 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C5158E-36DE-4273-9630-9F410C8DC91E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9347635" y="5632498"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Gerader Verbinder 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBA5A1E-8832-4328-8A36-CD0F8D321667}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9289636" y="6048027"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="Gerader Verbinder 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BFB31A-AD25-44ED-BF53-C364BE43015C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9281301" y="6920756"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="Gerader Verbinder 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2C60F4-9124-4F21-BA5B-A6BE68DD8588}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9255107" y="7793485"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Gerader Verbinder 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2617F8-6367-4BD5-A745-ACE9C40F7EDA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9300351" y="8660260"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="Gerader Verbinder 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9B1D6C-CCAC-4542-931C-BED45808C18C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9280111" y="9521082"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="Gerader Verbinder 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27865850-F512-4EA7-84CD-9984319232B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9301543" y="10393811"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="Gerader Verbinder 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7255BF8-380F-487B-A652-FEA6B858BC23}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9363113" y="6493320"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Gerader Verbinder 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6863C9-6C18-4348-A2D6-7A53117CAFC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9366685" y="7366049"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="Gerader Verbinder 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209D555F-CE54-4893-A0A1-03A762322A9B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9370257" y="8244730"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Gerader Verbinder 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32163306-EC9E-42C0-A42A-45834F5F3610}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9367876" y="9129364"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="Gerader Verbinder 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3147E6-4492-452D-B0E7-39C233BF8BE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9347635" y="9972326"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="Gerader Verbinder 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E79C79-81BC-4DC5-92B1-86E66158C5E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9345254" y="10833148"/>
+            <a:ext cx="28800000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>729976</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>83885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>573976</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>83885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Gerader Verbinder 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8A176B-2994-4767-8852-11DC14B5EFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14445976" y="12466385"/>
+          <a:ext cx="28800000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162484</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127748</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="55" name="Diagramm 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2507FE-7407-4416-B62B-F8C4AE117512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1313,20 +4434,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E27D90-934B-474B-A672-1D4F9D9EBE3C}">
   <dimension ref="Q3:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
-    </sheetView>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
@@ -1467,13 +4586,13 @@
       </c>
     </row>
     <row r="13" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
     <row r="14" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R14" t="s">
@@ -1528,7 +4647,7 @@
         <v>2509</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:U19" si="3">T16*S16</f>
+        <f t="shared" ref="U16:U18" si="3">T16*S16</f>
         <v>2509</v>
       </c>
       <c r="V16">
@@ -1566,7 +4685,7 @@
         <v>15</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S16:S19" si="5">R18/3-1</f>
+        <f t="shared" ref="S18" si="5">R18/3-1</f>
         <v>4</v>
       </c>
       <c r="T18">
@@ -1706,9 +4825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1797,7 +4914,7 @@
         <f t="shared" ref="G4:G7" si="1">F4*E4</f>
         <v>3672</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f>F4*E4*I3</f>
         <v>2937.6000000000004</v>
       </c>
@@ -1866,7 +4983,7 @@
         <f t="shared" si="1"/>
         <v>9128</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f>F7*E7*I3</f>
         <v>7302.4000000000005</v>
       </c>
@@ -1916,7 +5033,7 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -1937,7 +5054,7 @@
       <c r="O11" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="Q11" t="s">
@@ -1954,7 +5071,7 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="5"/>
       <c r="I12" t="s">
         <v>19</v>
       </c>
@@ -1964,7 +5081,7 @@
       <c r="N12" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="5"/>
       <c r="R12" t="s">
         <v>19</v>
       </c>
@@ -2260,7 +5377,7 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -2281,7 +5398,7 @@
       <c r="O21" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="Q21" t="s">
@@ -2298,7 +5415,7 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="5"/>
       <c r="I22" t="s">
         <v>19</v>
       </c>
@@ -2308,7 +5425,7 @@
       <c r="N22" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="4"/>
+      <c r="P22" s="5"/>
       <c r="R22" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +5735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833779CB-4F96-4396-AA2B-83371DF475E3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2630,12 +5747,998 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C114B2FA-4A69-4020-BD2D-E76A64DF884D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AFA3ED-5D1F-41B8-8124-F9CE7C4BE27A}">
+  <dimension ref="B2:M42"/>
+  <sheetViews>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>SUM(C4:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>I4*1.60934</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <f>K4/SUM($K$4:$K$42)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f>L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I5">
+        <f>I4+$I$42/38</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:J42" si="0">I5*1.60934</f>
+        <v>3.21868</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="6">
+        <f>K5/SUM($K$4:$K$42)</f>
+        <v>1.4025245441795231E-3</v>
+      </c>
+      <c r="M5" s="7">
+        <f>M4+L5</f>
+        <v>1.4025245441795231E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I41" si="1">I5+$I$42/38</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.43736</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6">
+        <f>K6/SUM($K$4:$K$42)</f>
+        <v>1.4025245441795231E-3</v>
+      </c>
+      <c r="M6" s="7">
+        <f>M5+L6</f>
+        <v>2.8050490883590462E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>9.6560400000000008</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="6">
+        <f>K7/SUM($K$4:$K$42)</f>
+        <v>1.4025245441795231E-3</v>
+      </c>
+      <c r="M7" s="7">
+        <f>M6+L7</f>
+        <v>4.2075736325385693E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>12.87472</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6">
+        <f>K8/SUM($K$4:$K$42)</f>
+        <v>1.4025245441795231E-3</v>
+      </c>
+      <c r="M8" s="7">
+        <f>M7+L8</f>
+        <v>5.6100981767180924E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>16.093399999999999</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+      <c r="L9" s="6">
+        <f>K9/SUM($K$4:$K$42)</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="M9" s="7">
+        <f>M8+L9</f>
+        <v>1.2061711079943898E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(G4:G9)</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>19.312080000000002</v>
+      </c>
+      <c r="K10">
+        <v>55</v>
+      </c>
+      <c r="L10" s="6">
+        <f>K10/SUM($K$4:$K$42)</f>
+        <v>1.5427769985974754E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <f>M9+L10</f>
+        <v>2.7489481065918652E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>22.530760000000001</v>
+      </c>
+      <c r="K11">
+        <v>101</v>
+      </c>
+      <c r="L11" s="6">
+        <f>K11/SUM($K$4:$K$42)</f>
+        <v>2.8330995792426369E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <f>M10+L11</f>
+        <v>5.5820476858345021E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>25.74944</v>
+      </c>
+      <c r="K12">
+        <v>112</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/SUM($K$4:$K$42)</f>
+        <v>3.1416549789621322E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <f>M11+L12</f>
+        <v>8.7237026647966343E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>28.968119999999999</v>
+      </c>
+      <c r="K13">
+        <v>150</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/SUM($K$4:$K$42)</f>
+        <v>4.2075736325385693E-2</v>
+      </c>
+      <c r="M13" s="7">
+        <f>M12+L13</f>
+        <v>0.12931276297335204</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>32.186799999999998</v>
+      </c>
+      <c r="K14">
+        <v>178</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/SUM($K$4:$K$42)</f>
+        <v>4.9929873772791025E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <f>M13+L14</f>
+        <v>0.17924263674614305</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>35.405479999999997</v>
+      </c>
+      <c r="K15">
+        <v>190</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/SUM($K$4:$K$42)</f>
+        <v>5.3295932678821878E-2</v>
+      </c>
+      <c r="M15" s="7">
+        <f>M14+L15</f>
+        <v>0.23253856942496492</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>38.624160000000003</v>
+      </c>
+      <c r="K16">
+        <v>227</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/SUM($K$4:$K$42)</f>
+        <v>6.3674614305750346E-2</v>
+      </c>
+      <c r="M16" s="7">
+        <f>M15+L16</f>
+        <v>0.29621318373071526</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>41.842840000000002</v>
+      </c>
+      <c r="K17">
+        <v>255</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/SUM($K$4:$K$42)</f>
+        <v>7.1528751753155678E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <f>M16+L17</f>
+        <v>0.36774193548387091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>45.061520000000002</v>
+      </c>
+      <c r="K18">
+        <v>265</v>
+      </c>
+      <c r="L18" s="6">
+        <f>K18/SUM($K$4:$K$42)</f>
+        <v>7.4333800841514724E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <f>M17+L18</f>
+        <v>0.44207573632538566</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>48.280200000000001</v>
+      </c>
+      <c r="K19">
+        <v>310</v>
+      </c>
+      <c r="L19" s="6">
+        <f>K19/SUM($K$4:$K$42)</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <f>M18+L19</f>
+        <v>0.52903225806451615</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
+        <v>51.49888</v>
+      </c>
+      <c r="K20">
+        <v>235</v>
+      </c>
+      <c r="L20" s="6">
+        <f>K20/SUM($K$4:$K$42)</f>
+        <v>6.5918653576437586E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <f>M19+L20</f>
+        <v>0.59495091164095371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
+        <v>54.717559999999999</v>
+      </c>
+      <c r="K21">
+        <v>223</v>
+      </c>
+      <c r="L21" s="6">
+        <f>K21/SUM($K$4:$K$42)</f>
+        <v>6.2552594670406733E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <f>M20+L21</f>
+        <v>0.65750350631136045</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>57.936239999999998</v>
+      </c>
+      <c r="K22">
+        <v>197</v>
+      </c>
+      <c r="L22" s="6">
+        <f>K22/SUM($K$4:$K$42)</f>
+        <v>5.5259467040673214E-2</v>
+      </c>
+      <c r="M22" s="7">
+        <f>M21+L22</f>
+        <v>0.71276297335203365</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>61.154919999999997</v>
+      </c>
+      <c r="K23">
+        <v>180</v>
+      </c>
+      <c r="L23" s="6">
+        <f>K23/SUM($K$4:$K$42)</f>
+        <v>5.0490883590462832E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <f>M22+L23</f>
+        <v>0.76325385694249648</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>64.373599999999996</v>
+      </c>
+      <c r="K24">
+        <v>168</v>
+      </c>
+      <c r="L24" s="6">
+        <f>K24/SUM($K$4:$K$42)</f>
+        <v>4.7124824684431979E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <f>M23+L24</f>
+        <v>0.8103786816269285</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>67.592280000000002</v>
+      </c>
+      <c r="K25">
+        <v>135</v>
+      </c>
+      <c r="L25" s="6">
+        <f>K25/SUM($K$4:$K$42)</f>
+        <v>3.7868162692847124E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <f>M24+L25</f>
+        <v>0.84824684431977559</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="0"/>
+        <v>70.810959999999994</v>
+      </c>
+      <c r="K26">
+        <v>120</v>
+      </c>
+      <c r="L26" s="6">
+        <f>K26/SUM($K$4:$K$42)</f>
+        <v>3.3660589060308554E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <f>M25+L26</f>
+        <v>0.88190743338008415</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="0"/>
+        <v>74.029640000000001</v>
+      </c>
+      <c r="K27">
+        <v>82</v>
+      </c>
+      <c r="L27" s="6">
+        <f>K27/SUM($K$4:$K$42)</f>
+        <v>2.300140252454418E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <f>M26+L27</f>
+        <v>0.90490883590462834</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="0"/>
+        <v>77.248320000000007</v>
+      </c>
+      <c r="K28">
+        <v>65</v>
+      </c>
+      <c r="L28" s="6">
+        <f>K28/SUM($K$4:$K$42)</f>
+        <v>1.82328190743338E-2</v>
+      </c>
+      <c r="M28" s="7">
+        <f>M27+L28</f>
+        <v>0.92314165497896217</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="0"/>
+        <v>80.466999999999999</v>
+      </c>
+      <c r="K29">
+        <v>52</v>
+      </c>
+      <c r="L29" s="6">
+        <f>K29/SUM($K$4:$K$42)</f>
+        <v>1.4586255259467041E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <f>M28+L29</f>
+        <v>0.93772791023842916</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="0"/>
+        <v>83.685680000000005</v>
+      </c>
+      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="L30" s="6">
+        <f>K30/SUM($K$4:$K$42)</f>
+        <v>1.4025245441795231E-2</v>
+      </c>
+      <c r="M30" s="7">
+        <f>M29+L30</f>
+        <v>0.95175315568022434</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="0"/>
+        <v>86.904359999999997</v>
+      </c>
+      <c r="K31">
+        <v>26</v>
+      </c>
+      <c r="L31" s="6">
+        <f>K31/SUM($K$4:$K$42)</f>
+        <v>7.2931276297335205E-3</v>
+      </c>
+      <c r="M31" s="7">
+        <f>M30+L31</f>
+        <v>0.95904628330995789</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="0"/>
+        <v>90.123040000000003</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32" s="6">
+        <f>K32/SUM($K$4:$K$42)</f>
+        <v>7.5736325385694246E-3</v>
+      </c>
+      <c r="M32" s="7">
+        <f>M31+L32</f>
+        <v>0.96661991584852736</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="0"/>
+        <v>93.341719999999995</v>
+      </c>
+      <c r="K33">
+        <v>26</v>
+      </c>
+      <c r="L33" s="6">
+        <f>K33/SUM($K$4:$K$42)</f>
+        <v>7.2931276297335205E-3</v>
+      </c>
+      <c r="M33" s="7">
+        <f>M32+L33</f>
+        <v>0.97391304347826091</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="0"/>
+        <v>96.560400000000001</v>
+      </c>
+      <c r="K34">
+        <v>23</v>
+      </c>
+      <c r="L34" s="6">
+        <f>K34/SUM($K$4:$K$42)</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="M34" s="7">
+        <f>M33+L34</f>
+        <v>0.98036465638148673</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="0"/>
+        <v>99.779079999999993</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35" s="6">
+        <f>K35/SUM($K$4:$K$42)</f>
+        <v>5.6100981767180924E-3</v>
+      </c>
+      <c r="M35" s="7">
+        <f>M34+L35</f>
+        <v>0.98597475455820482</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="0"/>
+        <v>102.99776</v>
+      </c>
+      <c r="K36">
+        <v>23</v>
+      </c>
+      <c r="L36" s="6">
+        <f>K36/SUM($K$4:$K$42)</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="M36" s="7">
+        <f>M35+L36</f>
+        <v>0.99242636746143065</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="0"/>
+        <v>106.21644000000001</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37" s="6">
+        <f>K37/SUM($K$4:$K$42)</f>
+        <v>2.8050490883590462E-3</v>
+      </c>
+      <c r="M37" s="7">
+        <f>M36+L37</f>
+        <v>0.99523141654978975</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="0"/>
+        <v>109.43512</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" s="6">
+        <f>K38/SUM($K$4:$K$42)</f>
+        <v>8.4151472650771393E-4</v>
+      </c>
+      <c r="M38" s="7">
+        <f>M37+L38</f>
+        <v>0.99607293127629748</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="0"/>
+        <v>112.6538</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="6">
+        <f>K39/SUM($K$4:$K$42)</f>
+        <v>1.4025245441795231E-3</v>
+      </c>
+      <c r="M39" s="7">
+        <f>M38+L39</f>
+        <v>0.99747545582047703</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="0"/>
+        <v>115.87248</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40" s="6">
+        <f>K40/SUM($K$4:$K$42)</f>
+        <v>1.1220196353436186E-3</v>
+      </c>
+      <c r="M40" s="7">
+        <f>M39+L40</f>
+        <v>0.99859747545582067</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="0"/>
+        <v>119.09116</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41" s="6">
+        <f>K41/SUM($K$4:$K$42)</f>
+        <v>1.1220196353436186E-3</v>
+      </c>
+      <c r="M41" s="7">
+        <f>M40+L41</f>
+        <v>0.99971949509116431</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>76</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="0"/>
+        <v>122.30983999999999</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="6">
+        <f>K42/SUM($K$4:$K$42)</f>
+        <v>2.8050490883590464E-4</v>
+      </c>
+      <c r="M42" s="7">
+        <f>M41+L42</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PythonApplication3/Data/WrNeustadt.xlsx
+++ b/PythonApplication3/Data/WrNeustadt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\source\repos\EKS\PythonApplication3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50016BB4-3E9E-49EA-9112-2F6A8B9EFCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB4C7B-87A1-4E56-9DFF-DDB38A22604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19980" windowHeight="14190" xr2:uid="{00000000-0000-0000-0000-000000000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Gewerbe" sheetId="3" r:id="rId3"/>
     <sheet name="Schule" sheetId="4" r:id="rId4"/>
     <sheet name="E-Mobilität" sheetId="5" r:id="rId5"/>
+    <sheet name="Travel Profile" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>Wohnfläche</t>
   </si>
@@ -176,27 +177,6 @@
     <t>Volumen [m³]</t>
   </si>
   <si>
-    <t>Probability of Distance</t>
-  </si>
-  <si>
-    <t>0-15 km</t>
-  </si>
-  <si>
-    <t>15-30 km</t>
-  </si>
-  <si>
-    <t>30-45 km</t>
-  </si>
-  <si>
-    <t>45-60 km</t>
-  </si>
-  <si>
-    <t>60-75 km</t>
-  </si>
-  <si>
-    <t>&gt;75 km</t>
-  </si>
-  <si>
     <t>Gefahrene Meilen</t>
   </si>
   <si>
@@ -210,6 +190,24 @@
   </si>
   <si>
     <t>Wahrscheinlichkeit Kilometer gefahren</t>
+  </si>
+  <si>
+    <t>Losfahren</t>
+  </si>
+  <si>
+    <t>Wegfahren</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0968090X21001601#f0005</t>
+  </si>
+  <si>
+    <t>average Speed</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>Mindestzeit in Stunden</t>
   </si>
 </sst>
 </file>
@@ -264,14 +262,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -291,390 +289,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Wahrscheinlichkeit der gefahrenen</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Kilometer</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'E-Mobilität'!$F$4:$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0-15 km</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15-30 km</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-45 km</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45-60 km</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60-75 km</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>&gt;75 km</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'E-Mobilität'!$G$4:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A260-4800-909D-6977BE58329A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="842259392"/>
-        <c:axId val="842257096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="842259392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="842257096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="842257096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="842259392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1511,11 +1125,672 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="845110120"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Wahrscheihnlichkeit das das Auto losfährt bzw. Zurückkommt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Travel Profile'!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Losfahren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Travel Profile'!$W$2:$W$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Travel Profile'!$X$2:$X$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B6D-45EB-8B9B-313C8B7031FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Travel Profile'!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wegfahren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Travel Profile'!$W$2:$W$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Travel Profile'!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B6D-45EB-8B9B-313C8B7031FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="807104624"/>
+        <c:axId val="807102656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="807104624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807102656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="807102656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807104624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1673,7 +1948,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1781,6 +2056,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1791,6 +2071,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1822,6 +2107,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3492,51 +3780,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>112057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>453666</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25114</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2FD296-1923-4A67-94C3-F21CF87F8B35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>252366</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>719956</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>105656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>580926</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>286516</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>49149</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3552,7 +3804,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14203690" y="4868156"/>
+          <a:off x="19989031" y="486656"/>
           <a:ext cx="30808560" cy="10420993"/>
           <a:chOff x="7361697" y="3440206"/>
           <a:chExt cx="30808560" cy="10420993"/>
@@ -3572,7 +3824,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4132,16 +4384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>162484</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504518</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>55164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127748</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>588563</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4160,7 +4412,4802 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36095</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Grafik 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0D1FA8-3132-4906-BA73-A0553BE4C013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16038095" cy="8485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>189800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>189800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Gerader Verbinder 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07A0DCD-48FB-4D6A-BD64-4B92CE05C548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1713800" y="274194"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>75360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Gerader Verbinder 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8B9564-B862-4471-A5F0-29FAAF3F2118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2009075" y="265860"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30256</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30256</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>176291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Gerader Verbinder 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE418141-EB15-4DF6-8640-AB51CFA6A7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2316256" y="287291"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325531</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>124175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325531</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>13175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Gerader Verbinder 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3232831E-CF25-49FC-A256-B941B6A506BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2611531" y="314675"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>626759</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>626759</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>189387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Gerader Verbinder 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DCA8B5-7001-41D6-9647-33E895EF07B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2912759" y="300387"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171940</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>181052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Gerader Verbinder 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F053AD3-1BD0-405E-A9C9-5D221154A13A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3219940" y="292052"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>467215</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>467215</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>131046</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Gerader Verbinder 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C38C5-97BF-4BA4-A469-A975E57F3866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3515215" y="242046"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>490</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>490</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>176290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Gerader Verbinder 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6920201E-C8EA-4E3B-84F2-84EEC4F520E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3810490" y="287290"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140984</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140984</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>126284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Gerader Verbinder 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8806145A-CEEB-44CF-B3E7-B26619F4304E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4712984" y="237284"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>301718</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>301718</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>126283</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Gerader Verbinder 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75502F0B-ED0E-4F0B-968D-6F38622F9E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4111718" y="237283"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>608900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>608900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Gerader Verbinder 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442CB711-F20A-4D55-A7E0-B138457C03D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4418900" y="282527"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448165</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448165</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100090</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Gerader Verbinder 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8105A7-5A25-45E1-8587-95BB79B4C0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5020165" y="211090"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>743440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>743440</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121521</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Gerader Verbinder 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C27B659-D797-40EB-8E76-5030532B1409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5315440" y="232521"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276715</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Gerader Verbinder 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA94A56F-C7F4-49B5-AF33-AA2F9543235E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5610715" y="236093"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>589849</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>37259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>589849</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Gerader Verbinder 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E668F2-626C-46F6-8899-92F77A9ACC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5923849" y="227759"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129077</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>94410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129077</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Gerader Verbinder 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E919B853-113C-4B75-9A33-A14A48CC0D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6225077" y="284910"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>418399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>418399</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Gerader Verbinder 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E535C736-1F60-4AE8-B3AA-CA318E7376E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6514399" y="228950"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>719627</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>719627</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Gerader Verbinder 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1417258-F4F5-4B59-BE90-3B7691A59D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6815627" y="232522"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>258855</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>258855</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>148906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Gerader Verbinder 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B6DECC-1E46-4F4A-BB85-E49EDCD9492B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7116855" y="259906"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560084</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Gerader Verbinder 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1DAB69-9B0F-4F6E-97A2-CAB4BF9BDDD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7418084" y="209900"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99312</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99312</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>96518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Gerader Verbinder 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D75F5A-E60F-49DA-B5E9-2D552E77B5B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7719312" y="207518"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400540</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>58418</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Gerader Verbinder 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2D8A1F-A215-4D63-BB82-B7EB64E04F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8020540" y="169418"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>695815</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>695815</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Gerader Verbinder 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064BFD09-8688-490D-8DF5-1E35900997CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8315815" y="250380"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223136</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223136</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>178671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Gerader Verbinder 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4DEE0C-56AB-46ED-AD30-BE0E12ED66C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8605136" y="289671"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>536270</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>43211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>536270</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Gerader Verbinder 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C627C6E-F436-462B-84C8-BA8E938828C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8918270" y="233711"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75498</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>183704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75498</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>72704</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Gerader Verbinder 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A3F2C5-0F39-4406-A1C4-01BAC9DA2D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9219498" y="183704"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370773</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370773</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>82229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Gerader Verbinder 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96D4861-2F76-4BBA-B560-60B8414AF9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9514773" y="193229"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>672001</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>18207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>672001</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>97707</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Gerader Verbinder 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6503B8F8-B06B-4905-AD48-F8E0C2151A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9816001" y="208707"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205276</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205276</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Gerader Verbinder 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761A4BAD-9504-4168-9085-26AEBC3D5499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10111276" y="390872"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512457</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512457</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Gerader Verbinder 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F477FE9A-8B72-4DC1-B1B1-9442CADAC2BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10418457" y="406350"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>39779</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>94406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>39779</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Gerader Verbinder 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40395FCE-4366-4109-969C-1A525C8AF0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10707779" y="284906"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358867</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358867</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Gerader Verbinder 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8996014-6C71-423C-A2F7-C233A6F738E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11026867" y="163462"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>654142</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>178940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>654142</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Gerader Verbinder 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DB45AF-211A-4836-91B3-60EC2F871D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11322142" y="178940"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>187417</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>187417</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>6028</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Gerader Verbinder 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D772AD7-85A2-43F9-BD83-9A05A1D12E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11617417" y="307528"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476739</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>43209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476739</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122709</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Gerader Verbinder 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8525FD9-08F8-4376-88BB-35C8E528F152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11906739" y="233709"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15967</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15967</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>126281</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Gerader Verbinder 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFE42D4-BAAC-40BA-8D75-B898970D4CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12207967" y="237281"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335055</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335055</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177478</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Gerader Verbinder 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A570FE0-B390-4892-82B6-5654DDAC8D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12527055" y="288478"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>612471</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>612471</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50081</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Gerader Verbinder 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0FE18D-7966-4AC7-A848-5176E1B1B469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12804471" y="351581"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169559</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>188466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169559</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77466</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Gerader Verbinder 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3780F4-0333-4220-8711-246966DF393D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13123559" y="378966"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>458881</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>108694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>458881</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>188194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Gerader Verbinder 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8FD510-8D3D-45C6-B4F3-3E25ECE41C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13412881" y="299194"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>748203</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>748203</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>96516</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Gerader Verbinder 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87B5718-A28B-467B-8B9E-80DE8E4FCEAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13702203" y="398016"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293384</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293384</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>16744</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Gerader Verbinder 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4009CB5-C452-48D2-A53F-2AC75E01FE10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14009384" y="318244"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>79847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Gerader Verbinder 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9289AD0-B3D2-401D-A223-3512AA7A759B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14298706" y="381347"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133841</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133841</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>172715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Gerader Verbinder 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176F2E2B-2B19-4BC3-9194-524F6F7D01DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14611841" y="474215"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>429116</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>429116</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81037</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Gerader Verbinder 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCA1A47-3C91-4805-ABAE-ACA77C865645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14907116" y="382537"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>724391</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>724391</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Gerader Verbinder 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41677BE6-74C6-48DB-A8A2-8A3E69B68277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15202391" y="308718"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>269572</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>20587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>269572</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Gerader Verbinder 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC3A912-943E-4C9E-A807-DF2B4FAF3D07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15509572" y="401587"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>570800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>570800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Gerader Verbinder 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3359E3-C0B4-4868-8572-533D4CE690A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15810800" y="464690"/>
+          <a:ext cx="0" cy="7128000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>98390</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20390</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Gerader Verbinder 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF46725-6BAD-44DD-8FF4-DF3931DA20A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1622390" y="1099038"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87505</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>70338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9505</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>70338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="Gerader Verbinder 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D0AFDD-04A5-484D-9099-CB21E71CC899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1611505" y="1975338"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82062</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4062</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Gerader Verbinder 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86112A7-2F96-4A00-B93F-91BDF2C1A266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1606062" y="1545352"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71176</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>135652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>755176</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>135652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Gerader Verbinder 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D2BA48-F9FD-4251-8BE6-D862450D1338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1595176" y="2421652"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>92947</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14947</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Gerader Verbinder 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C02AF4-07AA-4FCA-BC4E-BCA381A2CC24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1616947" y="2846195"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>109275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54009</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Gerader Verbinder 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E863841A-E88B-4546-8C52-7B97659009EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1633275" y="3292509"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103832</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25832</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Gerader Verbinder 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADD785A-BBDC-450E-AF6B-316C1E1E2C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1627832" y="3727937"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>92947</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14947</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173752</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Gerader Verbinder 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A7B5FB-2321-43D5-8B31-CB0B5085E55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1616947" y="4174252"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>98390</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20390</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26794</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Gerader Verbinder 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1B5106-D060-430B-85C2-FF35A16E77AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1622390" y="4598794"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114719</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36719</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Gerader Verbinder 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A9C5E8-3AC5-484E-8760-B37027CBC93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1638719" y="5034223"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120162</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>42162</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Gerader Verbinder 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E182FDC1-FA0F-4EB7-BA96-21999C96F023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1644162" y="5480538"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152819</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74819</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Gerader Verbinder 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667E182D-0172-4C9E-95E6-24CB5FE21B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1676819" y="5926852"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152819</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74819</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Gerader Verbinder 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87277AC2-DDE4-4314-92BB-E090788E3EB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1676819" y="6351395"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65733</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>749733</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Gerader Verbinder 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06471FB-823A-45B3-AD19-5F6F551D5DD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1589733" y="6797709"/>
+          <a:ext cx="14400000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>722586</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="Textfeld 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F98807F-82A2-49B2-99CB-1BF261C1103B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="6667500"/>
+          <a:ext cx="532086" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>0,5%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>191814</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>40728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Textfeld 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7933BB76-F713-4EC5-8DD1-F5F89A20BD69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="953814" y="5755728"/>
+          <a:ext cx="532086" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>1,5%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>186559</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>718645</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>55180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Textfeld 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404ADADD-7033-4C32-A6D5-2CBAD32B3D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="948559" y="4850525"/>
+          <a:ext cx="532086" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>2,5%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>187873</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>719959</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161597</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Textfeld 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFECE68F-502F-4C41-AC7A-A5562DD5FF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="949873" y="4004442"/>
+          <a:ext cx="532086" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>3,5%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>202325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>734411</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Textfeld 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F089B4-BEA0-4A1D-A21E-08E3F5F00A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="964325" y="3138653"/>
+          <a:ext cx="532086" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>4,5%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>249622</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19708</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Textfeld 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB7FDF0-C562-41FB-96E8-B104984E9A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1011622" y="2286001"/>
+          <a:ext cx="532086" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>5,5%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>237798</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7884</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Textfeld 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2E5C50-CCFF-404D-B22B-8C241D688CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="999798" y="1367660"/>
+          <a:ext cx="532086" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>6,5%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>664780</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>67004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157656</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Textfeld 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11F578E-E9C8-45ED-8BCC-CD1E561397C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2188780" y="7496504"/>
+          <a:ext cx="254876" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>515007</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>74887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7883</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Textfeld 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD50EEB3-6059-46B6-9818-DBF82C391A9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801007" y="7504387"/>
+          <a:ext cx="254876" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168166</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423042</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Textfeld 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC49821-06D9-460D-A695-6B621EBE3846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3978166" y="7472856"/>
+          <a:ext cx="254876" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>754118</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246994</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>5256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Textfeld 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11B6BCF-E39D-4A18-873B-F788750E8B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564118" y="7467601"/>
+          <a:ext cx="254876" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466397</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>721273</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Textfeld 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB417DAC-54D2-4277-99C0-C5EC9411E9DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800397" y="7449208"/>
+          <a:ext cx="254876" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296917</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551793</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>185246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Textfeld 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE012BA7-B7AD-4B4A-9B99-6B725AEB2BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6392917" y="7457091"/>
+          <a:ext cx="254876" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>744920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341585</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Textfeld 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD859FA8-451A-410B-8C2C-8547A242B100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7602920" y="7464974"/>
+          <a:ext cx="358665" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>562304</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124810</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="Textfeld 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275AA76A-6824-4F58-AF10-8DF2A41F690E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8182304" y="7440012"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195756</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520262</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="Textfeld 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F2C318-635F-4AC8-986F-5ECA28662D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9339756" y="7441326"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19708</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>13140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344214</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>170795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Textfeld 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB75B863-5A20-4C5D-9F12-03D094A928BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925708" y="7442640"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>178678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>43356</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Textfeld 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E4EE9D-3D05-4575-B295-8A8CB18D5DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11148850" y="7417678"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>350784</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>675290</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Textfeld 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F340BE-5E70-4B58-AB88-671F8FD750CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11780784" y="7432130"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17080</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Textfeld 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC83761-065E-42F6-B944-38E408648EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12971080" y="7459719"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>570187</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>132693</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="Textfeld 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B414FD0-DE50-4F1C-A013-D2409F317F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13524187" y="7441326"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>269328</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>6571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>593834</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Textfeld 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A99E5B-D1E5-418B-8A02-FA4B78A393B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14747328" y="7436071"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>22</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119556</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444062</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>172108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="Textfeld 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090C9D38-72E9-4106-9E5C-753118485A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15359556" y="7443953"/>
+          <a:ext cx="324506" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>23</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>433826</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>149677</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="156" name="Diagramm 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38261D5E-CDBC-49EC-B07C-8F44FD205419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4434,18 +9481,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E27D90-934B-474B-A672-1D4F9D9EBE3C}">
   <dimension ref="Q3:V32"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
@@ -4586,13 +9633,13 @@
       </c>
     </row>
     <row r="13" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R14" t="s">
@@ -4825,7 +9872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R30"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5033,7 +10080,7 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -5054,7 +10101,7 @@
       <c r="O11" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="Q11" t="s">
@@ -5071,7 +10118,7 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="7"/>
       <c r="I12" t="s">
         <v>19</v>
       </c>
@@ -5081,7 +10128,7 @@
       <c r="N12" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="7"/>
       <c r="R12" t="s">
         <v>19</v>
       </c>
@@ -5377,7 +10424,7 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -5398,7 +10445,7 @@
       <c r="O21" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="Q21" t="s">
@@ -5415,7 +10462,7 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="7"/>
       <c r="I22" t="s">
         <v>19</v>
       </c>
@@ -5425,7 +10472,7 @@
       <c r="N22" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="5"/>
+      <c r="P22" s="7"/>
       <c r="R22" t="s">
         <v>19</v>
       </c>
@@ -5735,7 +10782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833779CB-4F96-4396-AA2B-83371DF475E3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -5747,7 +10794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C114B2FA-4A69-4020-BD2D-E76A64DF884D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -5759,7 +10806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AFA3ED-5D1F-41B8-8124-F9CE7C4BE27A}">
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5771,46 +10820,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <f>SUM(C4:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3">
+        <f>ROUND(J4/$B$4+1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="I4">
         <v>0</v>
       </c>
@@ -5821,917 +10872,973 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="6">
-        <f>K4/SUM($K$4:$K$42)</f>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L42" si="0">K4/SUM($K$4:$K$42)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <f>L4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E42" si="1">ROUND(J5/$B$4+1,0)</f>
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.19</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="I5">
         <f>I4+$I$42/38</f>
         <v>2</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J42" si="0">I5*1.60934</f>
+        <f t="shared" ref="J5:J42" si="2">I5*1.60934</f>
         <v>3.21868</v>
       </c>
       <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5" s="6">
-        <f>K5/SUM($K$4:$K$42)</f>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
         <v>1.4025245441795231E-3</v>
       </c>
-      <c r="M5" s="7">
-        <f>M4+L5</f>
+      <c r="M5" s="5">
+        <f t="shared" ref="M5:M42" si="3">M4+L5</f>
         <v>1.4025245441795231E-3</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.17</v>
-      </c>
+      <c r="E6" s="3">
+        <f>ROUND(J6/$B$4+1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="I6">
-        <f t="shared" ref="I6:I41" si="1">I5+$I$42/38</f>
+        <f t="shared" ref="I6:I41" si="4">I5+$I$42/38</f>
         <v>4</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.43736</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" s="6">
-        <f>K6/SUM($K$4:$K$42)</f>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
         <v>1.4025245441795231E-3</v>
       </c>
-      <c r="M6" s="7">
-        <f>M5+L6</f>
+      <c r="M6" s="5">
+        <f t="shared" si="3"/>
         <v>2.8050490883590462E-3</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.6560400000000008</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" s="6">
-        <f>K7/SUM($K$4:$K$42)</f>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
         <v>1.4025245441795231E-3</v>
       </c>
-      <c r="M7" s="7">
-        <f>M6+L7</f>
+      <c r="M7" s="5">
+        <f t="shared" si="3"/>
         <v>4.2075736325385693E-3</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.13</v>
-      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.87472</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
-      <c r="L8" s="6">
-        <f>K8/SUM($K$4:$K$42)</f>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
         <v>1.4025245441795231E-3</v>
       </c>
-      <c r="M8" s="7">
-        <f>M7+L8</f>
+      <c r="M8" s="5">
+        <f t="shared" si="3"/>
         <v>5.6100981767180924E-3</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.093399999999999</v>
       </c>
       <c r="K9">
         <v>23</v>
       </c>
-      <c r="L9" s="6">
-        <f>K9/SUM($K$4:$K$42)</f>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
         <v>6.4516129032258064E-3</v>
       </c>
-      <c r="M9" s="7">
-        <f>M8+L9</f>
+      <c r="M9" s="5">
+        <f t="shared" si="3"/>
         <v>1.2061711079943898E-2</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2">
-        <f>SUM(G4:G9)</f>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="G10" s="2"/>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.312080000000002</v>
       </c>
       <c r="K10">
         <v>55</v>
       </c>
-      <c r="L10" s="6">
-        <f>K10/SUM($K$4:$K$42)</f>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
         <v>1.5427769985974754E-2</v>
       </c>
-      <c r="M10" s="7">
-        <f>M9+L10</f>
+      <c r="M10" s="5">
+        <f t="shared" si="3"/>
         <v>2.7489481065918652E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>7</v>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.530760000000001</v>
       </c>
       <c r="K11">
         <v>101</v>
       </c>
-      <c r="L11" s="6">
-        <f>K11/SUM($K$4:$K$42)</f>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
         <v>2.8330995792426369E-2</v>
       </c>
-      <c r="M11" s="7">
-        <f>M10+L11</f>
+      <c r="M11" s="5">
+        <f t="shared" si="3"/>
         <v>5.5820476858345021E-2</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>8</v>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.74944</v>
       </c>
       <c r="K12">
         <v>112</v>
       </c>
-      <c r="L12" s="6">
-        <f>K12/SUM($K$4:$K$42)</f>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
         <v>3.1416549789621322E-2</v>
       </c>
-      <c r="M12" s="7">
-        <f>M11+L12</f>
+      <c r="M12" s="5">
+        <f t="shared" si="3"/>
         <v>8.7237026647966343E-2</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>9</v>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.968119999999999</v>
       </c>
       <c r="K13">
         <v>150</v>
       </c>
-      <c r="L13" s="6">
-        <f>K13/SUM($K$4:$K$42)</f>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
         <v>4.2075736325385693E-2</v>
       </c>
-      <c r="M13" s="7">
-        <f>M12+L13</f>
+      <c r="M13" s="5">
+        <f t="shared" si="3"/>
         <v>0.12931276297335204</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>10</v>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.186799999999998</v>
       </c>
       <c r="K14">
         <v>178</v>
       </c>
-      <c r="L14" s="6">
-        <f>K14/SUM($K$4:$K$42)</f>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
         <v>4.9929873772791025E-2</v>
       </c>
-      <c r="M14" s="7">
-        <f>M13+L14</f>
+      <c r="M14" s="5">
+        <f t="shared" si="3"/>
         <v>0.17924263674614305</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>11</v>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35.405479999999997</v>
       </c>
       <c r="K15">
         <v>190</v>
       </c>
-      <c r="L15" s="6">
-        <f>K15/SUM($K$4:$K$42)</f>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
         <v>5.3295932678821878E-2</v>
       </c>
-      <c r="M15" s="7">
-        <f>M14+L15</f>
+      <c r="M15" s="5">
+        <f t="shared" si="3"/>
         <v>0.23253856942496492</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>12</v>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38.624160000000003</v>
       </c>
       <c r="K16">
         <v>227</v>
       </c>
-      <c r="L16" s="6">
-        <f>K16/SUM($K$4:$K$42)</f>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
         <v>6.3674614305750346E-2</v>
       </c>
-      <c r="M16" s="7">
-        <f>M15+L16</f>
+      <c r="M16" s="5">
+        <f t="shared" si="3"/>
         <v>0.29621318373071526</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>13</v>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.842840000000002</v>
       </c>
       <c r="K17">
         <v>255</v>
       </c>
-      <c r="L17" s="6">
-        <f>K17/SUM($K$4:$K$42)</f>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
         <v>7.1528751753155678E-2</v>
       </c>
-      <c r="M17" s="7">
-        <f>M16+L17</f>
+      <c r="M17" s="5">
+        <f t="shared" si="3"/>
         <v>0.36774193548387091</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>14</v>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45.061520000000002</v>
       </c>
       <c r="K18">
         <v>265</v>
       </c>
-      <c r="L18" s="6">
-        <f>K18/SUM($K$4:$K$42)</f>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
         <v>7.4333800841514724E-2</v>
       </c>
-      <c r="M18" s="7">
-        <f>M17+L18</f>
+      <c r="M18" s="5">
+        <f t="shared" si="3"/>
         <v>0.44207573632538566</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>15</v>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.280200000000001</v>
       </c>
       <c r="K19">
         <v>310</v>
       </c>
-      <c r="L19" s="6">
-        <f>K19/SUM($K$4:$K$42)</f>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="M19" s="7">
-        <f>M18+L19</f>
+      <c r="M19" s="5">
+        <f t="shared" si="3"/>
         <v>0.52903225806451615</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>16</v>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51.49888</v>
       </c>
       <c r="K20">
         <v>235</v>
       </c>
-      <c r="L20" s="6">
-        <f>K20/SUM($K$4:$K$42)</f>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
         <v>6.5918653576437586E-2</v>
       </c>
-      <c r="M20" s="7">
-        <f>M19+L20</f>
+      <c r="M20" s="5">
+        <f t="shared" si="3"/>
         <v>0.59495091164095371</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>17</v>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.717559999999999</v>
       </c>
       <c r="K21">
         <v>223</v>
       </c>
-      <c r="L21" s="6">
-        <f>K21/SUM($K$4:$K$42)</f>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
         <v>6.2552594670406733E-2</v>
       </c>
-      <c r="M21" s="7">
-        <f>M20+L21</f>
+      <c r="M21" s="5">
+        <f t="shared" si="3"/>
         <v>0.65750350631136045</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>18</v>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57.936239999999998</v>
       </c>
       <c r="K22">
         <v>197</v>
       </c>
-      <c r="L22" s="6">
-        <f>K22/SUM($K$4:$K$42)</f>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
         <v>5.5259467040673214E-2</v>
       </c>
-      <c r="M22" s="7">
-        <f>M21+L22</f>
+      <c r="M22" s="5">
+        <f t="shared" si="3"/>
         <v>0.71276297335203365</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>19</v>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61.154919999999997</v>
       </c>
       <c r="K23">
         <v>180</v>
       </c>
-      <c r="L23" s="6">
-        <f>K23/SUM($K$4:$K$42)</f>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
         <v>5.0490883590462832E-2</v>
       </c>
-      <c r="M23" s="7">
-        <f>M22+L23</f>
+      <c r="M23" s="5">
+        <f t="shared" si="3"/>
         <v>0.76325385694249648</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>20</v>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64.373599999999996</v>
       </c>
       <c r="K24">
         <v>168</v>
       </c>
-      <c r="L24" s="6">
-        <f>K24/SUM($K$4:$K$42)</f>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
         <v>4.7124824684431979E-2</v>
       </c>
-      <c r="M24" s="7">
-        <f>M23+L24</f>
+      <c r="M24" s="5">
+        <f t="shared" si="3"/>
         <v>0.8103786816269285</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>21</v>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67.592280000000002</v>
       </c>
       <c r="K25">
         <v>135</v>
       </c>
-      <c r="L25" s="6">
-        <f>K25/SUM($K$4:$K$42)</f>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
         <v>3.7868162692847124E-2</v>
       </c>
-      <c r="M25" s="7">
-        <f>M24+L25</f>
+      <c r="M25" s="5">
+        <f t="shared" si="3"/>
         <v>0.84824684431977559</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>22</v>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70.810959999999994</v>
       </c>
       <c r="K26">
         <v>120</v>
       </c>
-      <c r="L26" s="6">
-        <f>K26/SUM($K$4:$K$42)</f>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
         <v>3.3660589060308554E-2</v>
       </c>
-      <c r="M26" s="7">
-        <f>M25+L26</f>
+      <c r="M26" s="5">
+        <f t="shared" si="3"/>
         <v>0.88190743338008415</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>23</v>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74.029640000000001</v>
       </c>
       <c r="K27">
         <v>82</v>
       </c>
-      <c r="L27" s="6">
-        <f>K27/SUM($K$4:$K$42)</f>
+      <c r="L27" s="4">
+        <f t="shared" si="0"/>
         <v>2.300140252454418E-2</v>
       </c>
-      <c r="M27" s="7">
-        <f>M26+L27</f>
+      <c r="M27" s="5">
+        <f t="shared" si="3"/>
         <v>0.90490883590462834</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77.248320000000007</v>
       </c>
       <c r="K28">
         <v>65</v>
       </c>
-      <c r="L28" s="6">
-        <f>K28/SUM($K$4:$K$42)</f>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
         <v>1.82328190743338E-2</v>
       </c>
-      <c r="M28" s="7">
-        <f>M27+L28</f>
+      <c r="M28" s="5">
+        <f t="shared" si="3"/>
         <v>0.92314165497896217</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.466999999999999</v>
       </c>
       <c r="K29">
         <v>52</v>
       </c>
-      <c r="L29" s="6">
-        <f>K29/SUM($K$4:$K$42)</f>
+      <c r="L29" s="4">
+        <f t="shared" si="0"/>
         <v>1.4586255259467041E-2</v>
       </c>
-      <c r="M29" s="7">
-        <f>M28+L29</f>
+      <c r="M29" s="5">
+        <f t="shared" si="3"/>
         <v>0.93772791023842916</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83.685680000000005</v>
       </c>
       <c r="K30">
         <v>50</v>
       </c>
-      <c r="L30" s="6">
-        <f>K30/SUM($K$4:$K$42)</f>
+      <c r="L30" s="4">
+        <f t="shared" si="0"/>
         <v>1.4025245441795231E-2</v>
       </c>
-      <c r="M30" s="7">
-        <f>M29+L30</f>
+      <c r="M30" s="5">
+        <f t="shared" si="3"/>
         <v>0.95175315568022434</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>86.904359999999997</v>
       </c>
       <c r="K31">
         <v>26</v>
       </c>
-      <c r="L31" s="6">
-        <f>K31/SUM($K$4:$K$42)</f>
+      <c r="L31" s="4">
+        <f t="shared" si="0"/>
         <v>7.2931276297335205E-3</v>
       </c>
-      <c r="M31" s="7">
-        <f>M30+L31</f>
+      <c r="M31" s="5">
+        <f t="shared" si="3"/>
         <v>0.95904628330995789</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90.123040000000003</v>
       </c>
       <c r="K32">
         <v>27</v>
       </c>
-      <c r="L32" s="6">
-        <f>K32/SUM($K$4:$K$42)</f>
+      <c r="L32" s="4">
+        <f t="shared" si="0"/>
         <v>7.5736325385694246E-3</v>
       </c>
-      <c r="M32" s="7">
-        <f>M31+L32</f>
+      <c r="M32" s="5">
+        <f t="shared" si="3"/>
         <v>0.96661991584852736</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.341719999999995</v>
       </c>
       <c r="K33">
         <v>26</v>
       </c>
-      <c r="L33" s="6">
-        <f>K33/SUM($K$4:$K$42)</f>
+      <c r="L33" s="4">
+        <f t="shared" si="0"/>
         <v>7.2931276297335205E-3</v>
       </c>
-      <c r="M33" s="7">
-        <f>M32+L33</f>
+      <c r="M33" s="5">
+        <f t="shared" si="3"/>
         <v>0.97391304347826091</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>96.560400000000001</v>
       </c>
       <c r="K34">
         <v>23</v>
       </c>
-      <c r="L34" s="6">
-        <f>K34/SUM($K$4:$K$42)</f>
+      <c r="L34" s="4">
+        <f t="shared" si="0"/>
         <v>6.4516129032258064E-3</v>
       </c>
-      <c r="M34" s="7">
-        <f>M33+L34</f>
+      <c r="M34" s="5">
+        <f t="shared" si="3"/>
         <v>0.98036465638148673</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99.779079999999993</v>
       </c>
       <c r="K35">
         <v>20</v>
       </c>
-      <c r="L35" s="6">
-        <f>K35/SUM($K$4:$K$42)</f>
+      <c r="L35" s="4">
+        <f t="shared" si="0"/>
         <v>5.6100981767180924E-3</v>
       </c>
-      <c r="M35" s="7">
-        <f>M34+L35</f>
+      <c r="M35" s="5">
+        <f t="shared" si="3"/>
         <v>0.98597475455820482</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102.99776</v>
       </c>
       <c r="K36">
         <v>23</v>
       </c>
-      <c r="L36" s="6">
-        <f>K36/SUM($K$4:$K$42)</f>
+      <c r="L36" s="4">
+        <f t="shared" si="0"/>
         <v>6.4516129032258064E-3</v>
       </c>
-      <c r="M36" s="7">
-        <f>M35+L36</f>
+      <c r="M36" s="5">
+        <f t="shared" si="3"/>
         <v>0.99242636746143065</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106.21644000000001</v>
       </c>
       <c r="K37">
         <v>10</v>
       </c>
-      <c r="L37" s="6">
-        <f>K37/SUM($K$4:$K$42)</f>
+      <c r="L37" s="4">
+        <f t="shared" si="0"/>
         <v>2.8050490883590462E-3</v>
       </c>
-      <c r="M37" s="7">
-        <f>M36+L37</f>
+      <c r="M37" s="5">
+        <f t="shared" si="3"/>
         <v>0.99523141654978975</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E38" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>109.43512</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
-      <c r="L38" s="6">
-        <f>K38/SUM($K$4:$K$42)</f>
+      <c r="L38" s="4">
+        <f t="shared" si="0"/>
         <v>8.4151472650771393E-4</v>
       </c>
-      <c r="M38" s="7">
-        <f>M37+L38</f>
+      <c r="M38" s="5">
+        <f t="shared" si="3"/>
         <v>0.99607293127629748</v>
       </c>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E39" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>112.6538</v>
       </c>
       <c r="K39">
         <v>5</v>
       </c>
-      <c r="L39" s="6">
-        <f>K39/SUM($K$4:$K$42)</f>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
         <v>1.4025245441795231E-3</v>
       </c>
-      <c r="M39" s="7">
-        <f>M38+L39</f>
+      <c r="M39" s="5">
+        <f t="shared" si="3"/>
         <v>0.99747545582047703</v>
       </c>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E40" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115.87248</v>
       </c>
       <c r="K40">
         <v>4</v>
       </c>
-      <c r="L40" s="6">
-        <f>K40/SUM($K$4:$K$42)</f>
+      <c r="L40" s="4">
+        <f t="shared" si="0"/>
         <v>1.1220196353436186E-3</v>
       </c>
-      <c r="M40" s="7">
-        <f>M39+L40</f>
+      <c r="M40" s="5">
+        <f t="shared" si="3"/>
         <v>0.99859747545582067</v>
       </c>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E41" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>119.09116</v>
       </c>
       <c r="K41">
         <v>4</v>
       </c>
-      <c r="L41" s="6">
-        <f>K41/SUM($K$4:$K$42)</f>
+      <c r="L41" s="4">
+        <f t="shared" si="0"/>
         <v>1.1220196353436186E-3</v>
       </c>
-      <c r="M41" s="7">
-        <f>M40+L41</f>
+      <c r="M41" s="5">
+        <f t="shared" si="3"/>
         <v>0.99971949509116431</v>
       </c>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E42" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I42">
         <v>76</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>122.30983999999999</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42" s="6">
-        <f>K42/SUM($K$4:$K$42)</f>
+      <c r="L42" s="4">
+        <f t="shared" si="0"/>
         <v>2.8050490883590464E-4</v>
       </c>
-      <c r="M42" s="7">
-        <f>M41+L42</f>
+      <c r="M42" s="5">
+        <f t="shared" si="3"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
@@ -6741,4 +11848,305 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA426E5-BF9F-4DF4-BBCB-4B41A97AD8E2}">
+  <dimension ref="W1:AB26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>0.9</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1.5</v>
+      </c>
+      <c r="Y3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>0.9</v>
+      </c>
+      <c r="Y5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>0.9</v>
+      </c>
+      <c r="Y6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>1.6</v>
+      </c>
+      <c r="Y7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>4.8</v>
+      </c>
+      <c r="Y8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>11.4</v>
+      </c>
+      <c r="Y9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>11.6</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>10.4</v>
+      </c>
+      <c r="Y11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>7.3</v>
+      </c>
+      <c r="Y12">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="13" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>4.5</v>
+      </c>
+      <c r="Y14">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="23:28" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>14</v>
+      </c>
+      <c r="X16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>15</v>
+      </c>
+      <c r="X17">
+        <v>3.9</v>
+      </c>
+      <c r="Y17">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="18" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <v>3.5</v>
+      </c>
+      <c r="Y18">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="19" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>17</v>
+      </c>
+      <c r="X19">
+        <v>3.4</v>
+      </c>
+      <c r="Y19">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>18</v>
+      </c>
+      <c r="X20">
+        <v>3.4</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>3.4</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>21</v>
+      </c>
+      <c r="X23">
+        <v>2.7</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>22</v>
+      </c>
+      <c r="X24">
+        <v>1.6</v>
+      </c>
+      <c r="Y24">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="25" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>23</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <f>SUM(X2:X25)</f>
+        <v>100.00000000000003</v>
+      </c>
+      <c r="Y26">
+        <f>SUM(Y2:Y25)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PythonApplication3/Data/WrNeustadt.xlsx
+++ b/PythonApplication3/Data/WrNeustadt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\source\repos\EKS\PythonApplication3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB4C7B-87A1-4E56-9DFF-DDB38A22604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9BA30A-4C99-41D3-B241-1ACDDD57BF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11838,12 +11838,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11855,7 +11855,7 @@
   <dimension ref="W1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PythonApplication3/Data/WrNeustadt.xlsx
+++ b/PythonApplication3/Data/WrNeustadt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\source\repos\EKS\PythonApplication3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icerm\source\repos\PythonApplication3\PythonApplication3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9BA30A-4C99-41D3-B241-1ACDDD57BF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D71B26-B2DD-4D29-90C0-D4DED21F6443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Schule" sheetId="4" r:id="rId4"/>
     <sheet name="E-Mobilität" sheetId="5" r:id="rId5"/>
     <sheet name="Travel Profile" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>Wohnfläche</t>
   </si>
@@ -195,9 +196,6 @@
     <t>Losfahren</t>
   </si>
   <si>
-    <t>Wegfahren</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0968090X21001601#f0005</t>
   </si>
   <si>
@@ -209,12 +207,42 @@
   <si>
     <t>Mindestzeit in Stunden</t>
   </si>
+  <si>
+    <t>platz</t>
+  </si>
+  <si>
+    <t>thero Ladung</t>
+  </si>
+  <si>
+    <t>ladung</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>lad</t>
+  </si>
+  <si>
+    <t>Zurückkommen</t>
+  </si>
+  <si>
+    <t>Summe Losfahren</t>
+  </si>
+  <si>
+    <t>Summe Zurückkomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strom pro Wng/Jahr </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +259,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,11 +289,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -265,13 +302,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -309,7 +352,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -322,14 +365,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Wahrscheinlichkeit das bestimmte</a:t>
+              <a:rPr lang="de-DE" sz="2000"/>
+              <a:t>Wahrscheinlichkeit das bestimmte Kilometer gefahren werden</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Kilometer gefahren werden</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -346,7 +384,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -365,6 +403,306 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E-Mobilität'!$M$2:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Summe der Wahrscheinlichkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'E-Mobilität'!$J$4:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.21868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.43736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6560400000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.87472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.093399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.312080000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.530760000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.74944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.968119999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.186799999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.405479999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.624160000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.842840000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.061520000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.280200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.49888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.717559999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.936239999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.154919999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.373599999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.592280000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.810959999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74.029640000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77.248320000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.685680000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86.904359999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.123040000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.341719999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.560400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.779079999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102.99776</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>106.21644000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109.43512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>112.6538</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>115.87248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>119.09116</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>122.30983999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'E-Mobilität'!$M$4:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4025245441795231E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8050490883590462E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2075736325385693E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6100981767180924E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2061711079943898E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7489481065918652E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5820476858345021E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7237026647966343E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12931276297335204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17924263674614305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23253856942496492</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29621318373071526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36774193548387091</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44207573632538566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52903225806451615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59495091164095371</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65750350631136045</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71276297335203365</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76325385694249648</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8103786816269285</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84824684431977559</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88190743338008415</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90490883590462834</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92314165497896217</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93772791023842916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95175315568022434</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95904628330995789</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96661991584852736</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97391304347826091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98036465638148673</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98597475455820482</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99242636746143065</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99523141654978975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99607293127629748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99747545582047703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99859747545582067</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99971949509116431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E9D-4913-88D2-D7CAA7AF4FF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="535777168"/>
+        <c:axId val="535778448"/>
+      </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -663,307 +1001,6 @@
         <c:axId val="665286864"/>
         <c:axId val="665284240"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'E-Mobilität'!$M$2:$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Summe der Wahrscheinlichkeit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'E-Mobilität'!$J$4:$J$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.21868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.43736</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6560400000000008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.87472</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.093399999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.312080000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.530760000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.74944</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.968119999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.186799999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35.405479999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38.624160000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41.842840000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45.061520000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>48.280200000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51.49888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54.717559999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>57.936239999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>61.154919999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>64.373599999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>67.592280000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>70.810959999999994</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>74.029640000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77.248320000000007</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>80.466999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>83.685680000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>86.904359999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>90.123040000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>93.341719999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>96.560400000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>99.779079999999993</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>102.99776</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>106.21644000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>109.43512</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>112.6538</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>115.87248</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>119.09116</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>122.30983999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'E-Mobilität'!$M$4:$M$42</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4025245441795231E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8050490883590462E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.2075736325385693E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.6100981767180924E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2061711079943898E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7489481065918652E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5820476858345021E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.7237026647966343E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.12931276297335204</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17924263674614305</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.23253856942496492</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.29621318373071526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.36774193548387091</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.44207573632538566</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.52903225806451615</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.59495091164095371</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.65750350631136045</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.71276297335203365</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.76325385694249648</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.8103786816269285</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.84824684431977559</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.88190743338008415</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.90490883590462834</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.92314165497896217</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.93772791023842916</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.95175315568022434</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.95904628330995789</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.96661991584852736</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.97391304347826091</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.98036465638148673</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.98597475455820482</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.99242636746143065</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.99523141654978975</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.99607293127629748</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.99747545582047703</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.99859747545582067</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.99971949509116431</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0000000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E9D-4913-88D2-D7CAA7AF4FF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="845113400"/>
-        <c:axId val="845110120"/>
-      </c:lineChart>
       <c:catAx>
         <c:axId val="665286864"/>
         <c:scaling>
@@ -971,6 +1008,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Gefahrene</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Kilometer</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -993,7 +1090,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1052,7 +1149,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1072,9 +1169,10 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="845110120"/>
+        <c:axId val="535778448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1094,7 +1192,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1109,12 +1207,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845113400"/>
+        <c:crossAx val="535777168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="845113400"/>
+        <c:axId val="535777168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,8 +1222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="845110120"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="535778448"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1154,7 +1251,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1194,7 +1291,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -1228,7 +1325,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1241,12 +1338,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Wahrscheihnlichkeit das das Auto losfährt bzw. Zurückkommt</a:t>
+              <a:rPr lang="de-DE" sz="1800"/>
+              <a:t>Tägliches Reiseprofil der Autos</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36831409467269816"/>
+          <c:y val="2.1156965316528817E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1260,7 +1365,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1279,6 +1384,415 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Travel Profile'!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summe Losfahren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+                <a:alpha val="62000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Travel Profile'!$W$2:$W$25</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16666666666666699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Travel Profile'!$Z$2:$Z$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9000000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55399999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81500000000000017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88300000000000023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91700000000000026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94700000000000029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97400000000000031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37FC-4E5D-A895-4400055B655B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Travel Profile'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summe Zurückkomen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="78000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Travel Profile'!$W$2:$W$25</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16666666666666699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95833333333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Travel Profile'!$AA$2:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3999999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83199999999999985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90199999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-37FC-4E5D-A895-4400055B655B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="772638152"/>
+        <c:axId val="772637832"/>
+      </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1297,7 +1811,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="3175" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1306,85 +1820,95 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Travel Profile'!$W$2:$W$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.16666666666666699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0.20833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0.29166666666666702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>0.41666666666666702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>0.45833333333333298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>0.54166666666666696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>0.66666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>0.70833333333333304</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>0.79166666666666696</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>0.91666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>0.95833333333333304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,79 +1917,79 @@
             <c:numRef>
               <c:f>'Travel Profile'!$X$2:$X$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>9.0000000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>9.0000000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.4</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.6</c:v>
+                  <c:v>0.11599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.4</c:v>
+                  <c:v>0.10400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7</c:v>
+                  <c:v>2.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,100 +2010,110 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wegfahren</c:v>
+                  <c:v>Zurückkommen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="3175" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Travel Profile'!$W$2:$W$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.16666666666666699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0.20833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0.29166666666666702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>0.41666666666666702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>0.45833333333333298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>0.54166666666666696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>0.66666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>0.70833333333333304</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>0.79166666666666696</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>0.91666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>0.95833333333333304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,79 +2122,79 @@
             <c:numRef>
               <c:f>'Travel Profile'!$Y$2:$Y$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>9.0000000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
+                  <c:v>9.0000000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>2.7999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6</c:v>
+                  <c:v>3.6000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.8000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.8</c:v>
+                  <c:v>5.7999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,6 +2214,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="807104624"/>
         <c:axId val="807102656"/>
@@ -1691,7 +2226,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Uhrzeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1713,7 +2303,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1756,7 +2346,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Wahrscheinlichkeit [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1772,7 +2417,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1791,6 +2436,122 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="772637832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Summe [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772638152"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="772638152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="772637832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1814,7 +2575,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1854,7 +2615,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -3804,7 +4565,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19989031" y="486656"/>
+          <a:off x="19995092" y="486656"/>
           <a:ext cx="30808560" cy="10420993"/>
           <a:chOff x="7361697" y="3440206"/>
           <a:chExt cx="30808560" cy="10420993"/>
@@ -4384,16 +5145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504518</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>55164</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526678</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>588563</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>126882</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>398065</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9180,15 +9941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>433826</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>702769</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>149677</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>94130</xdr:rowOff>
+      <xdr:colOff>418620</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9486,13 +10247,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
@@ -9633,13 +10394,13 @@
       </c>
     </row>
     <row r="13" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R14" t="s">
@@ -9870,9 +10631,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R30"/>
+  <dimension ref="B2:T31"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9883,18 +10646,20 @@
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -9910,11 +10675,11 @@
       <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -9933,17 +10698,17 @@
         <v>9870</v>
       </c>
       <c r="H3">
-        <f>F3*E3*I3</f>
+        <f>F3*E3*J3</f>
         <v>7896</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -9962,11 +10727,12 @@
         <v>3672</v>
       </c>
       <c r="H4" s="3">
-        <f>F4*E4*I3</f>
+        <f>F4*E4*J3</f>
         <v>2937.6000000000004</v>
       </c>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -9985,11 +10751,11 @@
         <v>9180</v>
       </c>
       <c r="H5">
-        <f>F5*E5*I3</f>
+        <f>F5*E5*J3</f>
         <v>7344</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -10008,11 +10774,11 @@
         <v>10500</v>
       </c>
       <c r="H6">
-        <f>F6*E6*I3</f>
+        <f>F6*E6*J3</f>
         <v>8400</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -10031,11 +10797,12 @@
         <v>9128</v>
       </c>
       <c r="H7" s="3">
-        <f>F7*E7*I3</f>
+        <f>F7*E7*J3</f>
         <v>7302.4000000000005</v>
       </c>
+      <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G8">
         <f>SUM(G3:G7)</f>
         <v>42350</v>
@@ -10045,7 +10812,7 @@
         <v>33880</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -10056,18 +10823,18 @@
       <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>14</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f>H4+H5</f>
         <v>10281.6</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -10080,60 +10847,72 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
       </c>
       <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>2</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>4</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="9"/>
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="M12" t="s">
-        <v>17</v>
+      <c r="J12" t="s">
+        <v>19</v>
       </c>
       <c r="N12" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="R12" t="s">
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="S12" t="s">
         <v>19</v>
       </c>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>0.1</v>
       </c>
@@ -10158,34 +10937,42 @@
       <c r="I13">
         <v>1300</v>
       </c>
-      <c r="L13" s="1">
+      <c r="J13" s="3">
+        <f>1300/G13</f>
+        <v>1130.4347826086957</v>
+      </c>
+      <c r="M13" s="1">
         <f>C13</f>
         <v>0.1</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>25</v>
       </c>
-      <c r="N13">
-        <f>L13*$L$10</f>
+      <c r="O13">
+        <f>M13*$M$10</f>
         <v>1028.1600000000001</v>
       </c>
-      <c r="O13">
-        <f>N13/M13</f>
+      <c r="P13">
+        <f>O13/N13</f>
         <v>41.126400000000004</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f>G13</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q13">
-        <f>ROUNDUP(P13*N13/M13,0)</f>
+      <c r="R13">
+        <f>ROUNDUP(Q13*O13/N13,0)</f>
         <v>48</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1300</v>
       </c>
+      <c r="T13" s="3">
+        <f>1300/Q13</f>
+        <v>1130.4347826086957</v>
+      </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>0.2</v>
       </c>
@@ -10210,34 +10997,42 @@
       <c r="I14">
         <v>2200</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" ref="L14:L16" si="3">C14</f>
+      <c r="J14" s="3">
+        <f>2200/G14</f>
+        <v>1466.6666666666667</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ref="M14:M16" si="3">C14</f>
         <v>0.2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>45</v>
       </c>
-      <c r="N14">
-        <f>L14*$L$10</f>
+      <c r="O14">
+        <f>M14*$M$10</f>
         <v>2056.3200000000002</v>
       </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O16" si="4">N14/M14</f>
+      <c r="P14">
+        <f t="shared" ref="P14:P16" si="4">O14/N14</f>
         <v>45.696000000000005</v>
       </c>
-      <c r="P14">
-        <f t="shared" ref="P14:P16" si="5">G14</f>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q16" si="5">G14</f>
         <v>1.5</v>
       </c>
-      <c r="Q14">
-        <f t="shared" ref="Q14:Q16" si="6">ROUNDUP(P14*N14/M14,0)</f>
+      <c r="R14">
+        <f t="shared" ref="R14:R16" si="6">ROUNDUP(Q14*O14/N14,0)</f>
         <v>69</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2200</v>
       </c>
+      <c r="T14" s="3">
+        <f>2200/Q14</f>
+        <v>1466.6666666666667</v>
+      </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>0.35</v>
       </c>
@@ -10262,34 +11057,42 @@
       <c r="I15">
         <v>2800</v>
       </c>
-      <c r="L15" s="1">
+      <c r="J15" s="3">
+        <f>2800/G15</f>
+        <v>1120</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>65</v>
       </c>
-      <c r="N15">
-        <f>L15*$L$10</f>
+      <c r="O15">
+        <f>M15*$M$10</f>
         <v>3598.56</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f t="shared" si="4"/>
         <v>55.362461538461538</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f t="shared" si="6"/>
         <v>139</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2800</v>
       </c>
+      <c r="T15" s="3">
+        <f>2800/Q15</f>
+        <v>1120</v>
+      </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>0.35</v>
       </c>
@@ -10301,7 +11104,7 @@
         <v>2763.6</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f>E16/D16</f>
         <v>32.512941176470591</v>
       </c>
       <c r="G16">
@@ -10314,34 +11117,42 @@
       <c r="I16">
         <v>3300</v>
       </c>
-      <c r="L16" s="1">
+      <c r="J16" s="3">
+        <f>3300/G16</f>
+        <v>942.85714285714289</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>85</v>
       </c>
-      <c r="N16">
-        <f>L16*$L$10</f>
+      <c r="O16">
+        <f>M16*$M$10</f>
         <v>3598.56</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f t="shared" si="4"/>
         <v>42.335999999999999</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f t="shared" si="6"/>
         <v>149</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3300</v>
       </c>
+      <c r="T16" s="3">
+        <f>3300/Q16</f>
+        <v>942.85714285714289</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -10361,35 +11172,45 @@
         <f>SUM(H13:H16)</f>
         <v>311</v>
       </c>
-      <c r="I17">
-        <f>SUMPRODUCT(I13:I16,H13:H16)</f>
-        <v>840500</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" s="3">
+        <f>SUMPRODUCT(J13:J16,H13:H16)</f>
+        <v>346885.13457556942</v>
+      </c>
+      <c r="L17" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="2">
-        <f>SUM(L13:L16)</f>
+      <c r="M17" s="2">
+        <f>SUM(M13:M16)</f>
         <v>1</v>
-      </c>
-      <c r="N17">
-        <f>SUM(N13:N16)</f>
-        <v>10281.6</v>
       </c>
       <c r="O17">
         <f>SUM(O13:O16)</f>
+        <v>10281.6</v>
+      </c>
+      <c r="P17">
+        <f>SUM(P13:P16)</f>
         <v>184.52086153846153</v>
       </c>
-      <c r="Q17">
-        <f>SUM(Q13:Q16)</f>
+      <c r="R17">
+        <f>SUM(R13:R16)</f>
         <v>405</v>
       </c>
-      <c r="R17">
-        <f>SUMPRODUCT(R13:R16,Q13:Q16)</f>
-        <v>1095100</v>
+      <c r="T17" s="3">
+        <f>SUMPRODUCT(T13:T16,R13:R16)</f>
+        <v>451626.58385093173</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>J17/H17</f>
+        <v>1115.386284808905</v>
+      </c>
+      <c r="T18">
+        <f>T17/R17</f>
+        <v>1115.1273675331647</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -10400,18 +11221,18 @@
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>16</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f>H7</f>
         <v>7302.4000000000005</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -10424,60 +11245,72 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
       </c>
       <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" t="s">
         <v>18</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>2</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>26</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>4</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="9"/>
       <c r="I22" t="s">
         <v>19</v>
       </c>
-      <c r="M22" t="s">
-        <v>17</v>
+      <c r="J22" t="s">
+        <v>19</v>
       </c>
       <c r="N22" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="R22" t="s">
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="S22" t="s">
         <v>19</v>
       </c>
+      <c r="T22" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <f>C13</f>
         <v>0.1</v>
@@ -10504,34 +11337,42 @@
       <c r="I23">
         <v>1300</v>
       </c>
-      <c r="L23" s="1">
+      <c r="J23" s="3">
+        <f>1300/G23</f>
+        <v>1130.4347826086957</v>
+      </c>
+      <c r="M23" s="1">
         <f>C13</f>
         <v>0.1</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>25</v>
       </c>
-      <c r="N23">
-        <f>L23*$L$20</f>
+      <c r="O23">
+        <f>M23*$M$20</f>
         <v>730.24000000000012</v>
       </c>
-      <c r="O23">
-        <f>N23/M23</f>
+      <c r="P23">
+        <f>O23/N23</f>
         <v>29.209600000000005</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f>G13</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q23">
-        <f>ROUNDUP(P23*N23/M23,0)</f>
+      <c r="R23">
+        <f>ROUNDUP(Q23*O23/N23,0)</f>
         <v>34</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1300</v>
       </c>
+      <c r="T23" s="3">
+        <f>1300/Q23</f>
+        <v>1130.4347826086957</v>
+      </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <f t="shared" ref="C24:C26" si="7">C14</f>
         <v>0.2</v>
@@ -10558,34 +11399,42 @@
       <c r="I24">
         <v>2200</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" ref="L24:L26" si="11">C14</f>
+      <c r="J24" s="3">
+        <f>2200/G24</f>
+        <v>1466.6666666666667</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ref="M24:M26" si="11">C14</f>
         <v>0.2</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>45</v>
       </c>
-      <c r="N24">
-        <f>L24*$L$20</f>
+      <c r="O24">
+        <f>M24*$M$20</f>
         <v>1460.4800000000002</v>
       </c>
-      <c r="O24">
-        <f t="shared" ref="O24:O26" si="12">N24/M24</f>
+      <c r="P24">
+        <f t="shared" ref="P24:P26" si="12">O24/N24</f>
         <v>32.455111111111115</v>
       </c>
-      <c r="P24">
-        <f t="shared" ref="P24:P26" si="13">G14</f>
+      <c r="Q24">
+        <f t="shared" ref="Q24:Q26" si="13">G14</f>
         <v>1.5</v>
       </c>
-      <c r="Q24">
-        <f t="shared" ref="Q24:Q26" si="14">ROUNDUP(P24*N24/M24,0)</f>
+      <c r="R24">
+        <f t="shared" ref="R24:R26" si="14">ROUNDUP(Q24*O24/N24,0)</f>
         <v>49</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2200</v>
       </c>
+      <c r="T24" s="3">
+        <f>2200/Q24</f>
+        <v>1466.6666666666667</v>
+      </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <f t="shared" si="7"/>
         <v>0.35</v>
@@ -10612,34 +11461,42 @@
       <c r="I25">
         <v>2800</v>
       </c>
-      <c r="L25" s="1">
+      <c r="J25" s="3">
+        <f>2800/G25</f>
+        <v>1120</v>
+      </c>
+      <c r="M25" s="1">
         <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>65</v>
       </c>
-      <c r="N25">
-        <f>L25*$L$20</f>
+      <c r="O25">
+        <f>M25*$M$20</f>
         <v>2555.84</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f t="shared" si="12"/>
         <v>39.320615384615387</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2800</v>
       </c>
+      <c r="T25" s="3">
+        <f>2800/Q25</f>
+        <v>1120</v>
+      </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <f t="shared" si="7"/>
         <v>0.35</v>
@@ -10666,34 +11523,42 @@
       <c r="I26">
         <v>3300</v>
       </c>
-      <c r="L26" s="1">
+      <c r="J26" s="3">
+        <f>3300/G26</f>
+        <v>942.85714285714289</v>
+      </c>
+      <c r="M26" s="1">
         <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>85</v>
       </c>
-      <c r="N26">
-        <f>L26*$L$20</f>
+      <c r="O26">
+        <f>M26*$M$20</f>
         <v>2555.84</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <f t="shared" si="12"/>
         <v>30.068705882352944</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="14"/>
         <v>106</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>3300</v>
       </c>
+      <c r="T26" s="3">
+        <f>3300/Q26</f>
+        <v>942.85714285714289</v>
+      </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -10713,35 +11578,45 @@
         <f>SUM(H23:H26)</f>
         <v>331</v>
       </c>
-      <c r="I27">
-        <f>SUMPRODUCT(I23:I26,H23:H26)</f>
-        <v>895700</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" s="3">
+        <f>SUMPRODUCT(J23:J26,H23:H26)</f>
+        <v>368928.86128364393</v>
+      </c>
+      <c r="L27" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="2">
-        <f>SUM(L23:L26)</f>
+      <c r="M27" s="2">
+        <f>SUM(M23:M26)</f>
         <v>1</v>
-      </c>
-      <c r="N27">
-        <f>SUM(N23:N26)</f>
-        <v>7302.4000000000005</v>
       </c>
       <c r="O27">
         <f>SUM(O23:O26)</f>
+        <v>7302.4000000000005</v>
+      </c>
+      <c r="P27">
+        <f>SUM(P23:P26)</f>
         <v>131.05403237807946</v>
       </c>
-      <c r="Q27">
-        <f>SUM(Q23:Q26)</f>
+      <c r="R27">
+        <f>SUM(R23:R26)</f>
         <v>288</v>
       </c>
-      <c r="R27">
-        <f>SUMPRODUCT(R23:R26,Q23:Q26)</f>
-        <v>779000</v>
+      <c r="T27" s="3">
+        <f>SUMPRODUCT(T23:T26,R23:R26)</f>
+        <v>321124.30641821946</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>J27/H27</f>
+        <v>1114.5887047844228</v>
+      </c>
+      <c r="T28">
+        <f>T27/R27</f>
+        <v>1115.0149528410398</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>22</v>
       </c>
@@ -10752,26 +11627,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F30">
-        <f>ROUNDUP(F27+F17+O17+O27,0)</f>
+        <f>ROUNDUP(F27+F17+P17+P27,0)</f>
         <v>609</v>
       </c>
       <c r="G30">
-        <f>ROUNDUP(H27+H17+O17+O27,0)</f>
-        <v>958</v>
+        <f>ROUNDUP(H27+H17+R17+R27,0)</f>
+        <v>1335</v>
       </c>
       <c r="H30">
-        <f>I27+I17+R27+R17</f>
-        <v>3610300</v>
+        <f>J27+J17+T27+T17</f>
+        <v>1488564.8861283646</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>H30/G30</f>
+        <v>1115.0298772497113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q21:Q22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10806,8 +11687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AFA3ED-5D1F-41B8-8124-F9CE7C4BE27A}">
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showOutlineSymbols="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10820,45 +11701,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3">
-        <f>ROUND(J4/$B$4+1,0)</f>
+        <f>ROUND((J4/$B$4)+1,0)</f>
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
@@ -10883,7 +11764,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E5" s="3">
-        <f t="shared" ref="E5:E42" si="1">ROUND(J5/$B$4+1,0)</f>
+        <f t="shared" ref="E5:E42" si="1">ROUND((J5/$B$4)+1,0)</f>
         <v>1</v>
       </c>
       <c r="G5" s="1"/>
@@ -10909,7 +11790,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E6" s="3">
-        <f>ROUND(J6/$B$4+1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
@@ -11187,7 +12068,7 @@
         <v>0.29621318373071526</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -11212,7 +12093,7 @@
         <v>0.36774193548387091</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -11237,7 +12118,7 @@
         <v>0.44207573632538566</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -11262,7 +12143,7 @@
         <v>0.52903225806451615</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -11287,7 +12168,7 @@
         <v>0.59495091164095371</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -11312,7 +12193,7 @@
         <v>0.65750350631136045</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -11337,7 +12218,7 @@
         <v>0.71276297335203365</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11362,7 +12243,7 @@
         <v>0.76325385694249648</v>
       </c>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11387,7 +12268,7 @@
         <v>0.8103786816269285</v>
       </c>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11412,7 +12293,7 @@
         <v>0.84824684431977559</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11437,7 +12318,7 @@
         <v>0.88190743338008415</v>
       </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E27" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11462,7 +12343,7 @@
         <v>0.90490883590462834</v>
       </c>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11487,7 +12368,7 @@
         <v>0.92314165497896217</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11512,7 +12393,7 @@
         <v>0.93772791023842916</v>
       </c>
     </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11537,7 +12418,7 @@
         <v>0.95175315568022434</v>
       </c>
     </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11562,7 +12443,11 @@
         <v>0.95904628330995789</v>
       </c>
     </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>11.7/365</f>
+        <v>3.2054794520547943E-2</v>
+      </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11587,7 +12472,11 @@
         <v>0.96661991584852736</v>
       </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>2.5*0.06</f>
+        <v>0.15</v>
+      </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11612,7 +12501,7 @@
         <v>0.97391304347826091</v>
       </c>
     </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E34" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11637,7 +12526,7 @@
         <v>0.98036465638148673</v>
       </c>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E35" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11662,7 +12551,7 @@
         <v>0.98597475455820482</v>
       </c>
     </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E36" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11687,7 +12576,7 @@
         <v>0.99242636746143065</v>
       </c>
     </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E37" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11712,7 +12601,7 @@
         <v>0.99523141654978975</v>
       </c>
     </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E38" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11737,7 +12626,7 @@
         <v>0.99607293127629748</v>
       </c>
     </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E39" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11762,7 +12651,7 @@
         <v>0.99747545582047703</v>
       </c>
     </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E40" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11787,7 +12676,7 @@
         <v>0.99859747545582067</v>
       </c>
     </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E41" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11812,7 +12701,7 @@
         <v>0.99971949509116431</v>
       </c>
     </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E42" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11854,8 +12743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA426E5-BF9F-4DF4-BBCB-4B41A97AD8E2}">
   <dimension ref="W1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11865,288 +12754,677 @@
         <v>50</v>
       </c>
       <c r="Y1" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W2">
+      <c r="W2" s="7">
         <v>0</v>
       </c>
-      <c r="X2">
-        <v>4</v>
-      </c>
-      <c r="Y2">
-        <v>0.9</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>52</v>
+      <c r="X2" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>X2</f>
+        <v>0.04</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>Y2</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1.5</v>
-      </c>
-      <c r="Y3">
-        <v>0.6</v>
+      <c r="W3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>X3+Z2</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>Y3+AA2</f>
+        <v>1.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>0.5</v>
+      <c r="W4" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" ref="Z4:AA25" si="0">X4+Z3</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>0.9</v>
-      </c>
-      <c r="Y5">
-        <v>0.5</v>
+      <c r="W5" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="X5" s="1">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="0"/>
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="X6">
-        <v>0.9</v>
-      </c>
-      <c r="Y6">
-        <v>0.6</v>
+      <c r="W6" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="X6" s="1">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000018E-2</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="7" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W7">
-        <v>5</v>
-      </c>
-      <c r="X7">
-        <v>1.6</v>
-      </c>
-      <c r="Y7">
-        <v>0.9</v>
+      <c r="W7" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9000000000000019E-2</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W8">
-        <v>6</v>
-      </c>
-      <c r="X8">
-        <v>4.8</v>
-      </c>
-      <c r="Y8">
-        <v>1.6</v>
+      <c r="W8" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="X8" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W9">
-        <v>7</v>
-      </c>
-      <c r="X9">
-        <v>11.4</v>
-      </c>
-      <c r="Y9">
-        <v>2.8</v>
+      <c r="W9" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999991E-2</v>
       </c>
     </row>
     <row r="10" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W10">
-        <v>8</v>
-      </c>
-      <c r="X10">
-        <v>11.6</v>
-      </c>
-      <c r="Y10">
-        <v>3</v>
+      <c r="W10" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.377</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11399999999999999</v>
       </c>
     </row>
     <row r="11" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W11">
-        <v>9</v>
-      </c>
-      <c r="X11">
-        <v>10.4</v>
-      </c>
-      <c r="Y11">
-        <v>3.2</v>
+      <c r="W11" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="12" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W12">
-        <v>10</v>
-      </c>
-      <c r="X12">
-        <v>7.3</v>
-      </c>
-      <c r="Y12">
-        <v>3.6</v>
+      <c r="W12" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="X12" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55399999999999994</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.182</v>
       </c>
     </row>
     <row r="13" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W13">
-        <v>11</v>
-      </c>
-      <c r="X13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Y13">
-        <v>3.9</v>
+      <c r="W13" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="X13" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.221</v>
       </c>
     </row>
     <row r="14" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W14">
-        <v>12</v>
-      </c>
-      <c r="X14">
-        <v>4.5</v>
-      </c>
-      <c r="Y14">
-        <v>3.9</v>
+      <c r="W14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W15">
-        <v>13</v>
-      </c>
-      <c r="X15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Y15">
-        <v>4.4000000000000004</v>
+      <c r="W15" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="X15" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69700000000000006</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="16" spans="23:28" x14ac:dyDescent="0.25">
-      <c r="W16">
-        <v>14</v>
-      </c>
-      <c r="X16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y16">
-        <v>5</v>
+      <c r="W16" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="X16" s="1">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7410000000000001</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="17" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W17">
-        <v>15</v>
-      </c>
-      <c r="X17">
-        <v>3.9</v>
-      </c>
-      <c r="Y17">
-        <v>6.2</v>
+    <row r="17" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W17" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="X17" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W18">
-        <v>16</v>
-      </c>
-      <c r="X18">
-        <v>3.5</v>
-      </c>
-      <c r="Y18">
-        <v>7.8</v>
+    <row r="18" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W18" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81500000000000017</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W19">
-        <v>17</v>
-      </c>
-      <c r="X19">
-        <v>3.4</v>
-      </c>
-      <c r="Y19">
-        <v>8.8000000000000007</v>
+    <row r="19" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W19" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8490000000000002</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="20" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W20">
-        <v>18</v>
-      </c>
-      <c r="X20">
-        <v>3.4</v>
-      </c>
-      <c r="Y20">
-        <v>10</v>
+    <row r="20" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000023</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68199999999999994</v>
       </c>
     </row>
-    <row r="21" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W21">
-        <v>19</v>
-      </c>
-      <c r="X21">
-        <v>3.4</v>
-      </c>
-      <c r="Y21">
-        <v>8</v>
+    <row r="21" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W21" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="X21" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000026</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7619999999999999</v>
       </c>
     </row>
-    <row r="22" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W22">
-        <v>20</v>
-      </c>
-      <c r="X22">
-        <v>3</v>
-      </c>
-      <c r="Y22">
-        <v>7</v>
+    <row r="22" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W22" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94700000000000029</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83199999999999985</v>
       </c>
     </row>
-    <row r="23" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W23">
-        <v>21</v>
-      </c>
-      <c r="X23">
-        <v>2.7</v>
-      </c>
-      <c r="Y23">
-        <v>7</v>
+    <row r="23" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W23" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="X23" s="1">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97400000000000031</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90199999999999991</v>
       </c>
     </row>
-    <row r="24" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W24">
-        <v>22</v>
-      </c>
-      <c r="X24">
-        <v>1.6</v>
-      </c>
-      <c r="Y24">
-        <v>5.8</v>
+    <row r="24" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W24" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99000000000000032</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
       </c>
     </row>
-    <row r="25" spans="23:25" x14ac:dyDescent="0.25">
-      <c r="W25">
-        <v>23</v>
-      </c>
-      <c r="X25">
+    <row r="25" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W25" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y25">
-        <v>4</v>
-      </c>
     </row>
-    <row r="26" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="23:27" x14ac:dyDescent="0.25">
       <c r="X26">
-        <f>SUM(X2:X25)</f>
-        <v>100.00000000000003</v>
+        <v>200</v>
       </c>
       <c r="Y26">
         <f>SUM(Y2:Y25)</f>
-        <v>100</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AB2" r:id="rId1" location="f0005" xr:uid="{E5EC0593-E007-4D8A-8EBE-10584DF47FB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9431FEFA-999F-4905-8F84-517FE85EDDF5}">
+  <dimension ref="D2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <f>$F$2/COUNT($D$5:$D$9)</f>
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <f>100-D5</f>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <f>MIN(E5:G5)</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="0">$F$2/COUNT($D$5:$D$9)</f>
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="1">100-D6</f>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <f>MIN(E6:G6)</f>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <f>MIN(E7:G7)</f>
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <f>MIN(E8:G8)</f>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <f>MIN(E9:G9)</f>
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>SUM(D5:D9)/COUNT(D5:D9)</f>
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>SUM(I5:I9)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12">
+        <f>F2-H11</f>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>